--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/61_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/61_11R22.xlsx
@@ -689,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.220926448265725</v>
+        <v>0.1881699479791127</v>
       </c>
       <c r="E2">
-        <v>0.1844888277257527</v>
+        <v>0.1586375946322477</v>
       </c>
       <c r="F2">
-        <v>0.146051722883264</v>
+        <v>0.127484677811194</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.008764044912825663</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00535874826692588</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -713,76 +713,76 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.05057170199383092</v>
+        <v>0.05009900682920679</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0003790507753156253</v>
       </c>
       <c r="N2">
-        <v>0.1060240192015539</v>
+        <v>0.09504259538994778</v>
       </c>
       <c r="O2">
-        <v>0.009887987049081361</v>
+        <v>0.01712523336632547</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.001688294091832426</v>
+        <v>0.01047945830854886</v>
       </c>
       <c r="R2">
-        <v>0.02114595774189774</v>
+        <v>0.02624971415134758</v>
       </c>
       <c r="S2">
-        <v>0.07232312432653053</v>
+        <v>0.06772833280073921</v>
       </c>
       <c r="T2">
-        <v>0.003699132503106689</v>
+        <v>0.01210922418253218</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.004333801725933506</v>
       </c>
       <c r="V2">
-        <v>0.04525675555761163</v>
+        <v>0.0457912920594704</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.002055242684966644</v>
       </c>
       <c r="X2">
-        <v>0.02359475062994405</v>
+        <v>0.02823443806502191</v>
       </c>
       <c r="Y2">
-        <v>0.02359500333443535</v>
+        <v>0.02823464287966729</v>
       </c>
       <c r="Z2">
-        <v>0.05611947243510346</v>
+        <v>0.05459542329468983</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.01602762179749123</v>
+        <v>0.02210135036089772</v>
       </c>
       <c r="AC2">
-        <v>0.002103241264127646</v>
+        <v>0.01081576914144372</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.01649593919871151</v>
+        <v>0.0224809172691197</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.002340899485691448</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.004975469158071144</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.006413124468757477</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -799,22 +799,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1376808949027615</v>
+        <v>0.1273691491508393</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4237001810906716</v>
+        <v>0.3765554408789787</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02830052484017615</v>
+        <v>0.03207456546377833</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0005251802273219984</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -823,67 +823,67 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0002536075354545008</v>
+        <v>0.007639474352552462</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.07521170103578299</v>
+        <v>0.07294461374824521</v>
       </c>
       <c r="O3">
-        <v>0.02650921657872247</v>
+        <v>0.03051393831529868</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.01008538608075656</v>
+        <v>0.01620513602330612</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1250088213659609</v>
+        <v>0.1163289600250365</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.03368140318654952</v>
+        <v>0.03676250500535215</v>
       </c>
       <c r="V3">
-        <v>0.02268204353572318</v>
+        <v>0.02717962100020567</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.004867413286850909</v>
       </c>
       <c r="X3">
-        <v>0.03797347814385769</v>
+        <v>0.04050185509144451</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.0032009947536528</v>
       </c>
       <c r="Z3">
-        <v>0.06660424517378731</v>
+        <v>0.0654456089222028</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.001250568967457891</v>
       </c>
       <c r="AB3">
-        <v>0.001307288079783204</v>
+        <v>0.00855746401334358</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.002481165305968162</v>
       </c>
       <c r="AE3">
-        <v>0.008666536380677246</v>
+        <v>0.01496900296390793</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.005174798966907571</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.002334672069335378</v>
+        <v>0.00945254353734873</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1641449435294445</v>
+        <v>0.1467340273087929</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3625884154086267</v>
+        <v>0.3127691964814425</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.002638210039942724</v>
       </c>
       <c r="H4">
-        <v>0.03565770598628428</v>
+        <v>0.03923036382222903</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001478997704103094</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -933,76 +933,76 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.006046275559817431</v>
+        <v>0.01445485060556908</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0786529409724868</v>
+        <v>0.07520393880028726</v>
       </c>
       <c r="O4">
-        <v>0.001749918643107959</v>
+        <v>0.01086014254721458</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.02279330636352453</v>
+        <v>0.02846688167064732</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1487862701959948</v>
+        <v>0.1338836175621858</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.03401491631305618</v>
+        <v>0.03785586226404437</v>
       </c>
       <c r="V4">
-        <v>0.03645751077383207</v>
+        <v>0.03989955047749195</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.001311695846835535</v>
       </c>
       <c r="X4">
-        <v>0.04168105500901204</v>
+        <v>0.04427002456039329</v>
       </c>
       <c r="Y4">
-        <v>0.006370271388141631</v>
+        <v>0.01472593385994689</v>
       </c>
       <c r="Z4">
-        <v>0.04924484697197596</v>
+        <v>0.0505985546262351</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.006280524913191818</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.002560501718565988</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.0008622358289979258</v>
       </c>
       <c r="AE4">
-        <v>0.01158642134575382</v>
+        <v>0.01909022124335516</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.002667187164103562</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.004573050124674218</v>
       </c>
       <c r="AI4">
-        <v>0.0002252015389415149</v>
+        <v>0.009584430829749588</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.001060747944511756</v>
+        <v>0.0104078689436532</v>
       </c>
       <c r="E5">
-        <v>0.1449448338917928</v>
+        <v>0.1230912497285317</v>
       </c>
       <c r="F5">
-        <v>0.2664575805046329</v>
+        <v>0.218254429218778</v>
       </c>
       <c r="G5">
-        <v>0.1077919206168679</v>
+        <v>0.09399480138774816</v>
       </c>
       <c r="H5">
-        <v>0.004537291906204824</v>
+        <v>0.01313053785086207</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.008046960151104947</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1046,73 +1046,73 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.03399777733060494</v>
+        <v>0.03620263144154157</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.006734841919935387</v>
       </c>
       <c r="O5">
-        <v>0.1125421016221356</v>
+        <v>0.09771492409269965</v>
       </c>
       <c r="P5">
-        <v>0.0007783764541280451</v>
+        <v>0.01018672861417048</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.006201361978558502</v>
+        <v>0.01443376079161491</v>
       </c>
       <c r="S5">
-        <v>0.02394360095494947</v>
+        <v>0.02832866416046628</v>
       </c>
       <c r="T5">
-        <v>0.07318855129375663</v>
+        <v>0.06689503829577838</v>
       </c>
       <c r="U5">
-        <v>0.01281775657135562</v>
+        <v>0.01961541591639597</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.001814549596115214</v>
       </c>
       <c r="W5">
-        <v>0.05163924051236533</v>
+        <v>0.05001861185539418</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00696565998825035</v>
       </c>
       <c r="Y5">
-        <v>0.02012568043614711</v>
+        <v>0.02533864487658079</v>
       </c>
       <c r="Z5">
-        <v>0.0496397816293447</v>
+        <v>0.04845272786484868</v>
       </c>
       <c r="AA5">
-        <v>0.05422849568125691</v>
+        <v>0.05204639709810913</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.002401202395700574</v>
       </c>
       <c r="AC5">
-        <v>0.01135130659134793</v>
+        <v>0.01846695991856082</v>
       </c>
       <c r="AD5">
-        <v>0.0082373735097958</v>
+        <v>0.01602827113058927</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.0006137773885255391</v>
       </c>
       <c r="AF5">
-        <v>0.01651622057024322</v>
+        <v>0.02251188236271662</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.0009585839774178912</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.00734487903391005</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1129,88 +1129,88 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2364675958786759</v>
+        <v>0.2044947965975816</v>
       </c>
       <c r="E6">
-        <v>0.08196103485697036</v>
+        <v>0.07625522092217926</v>
       </c>
       <c r="F6">
-        <v>0.2350049051688209</v>
+        <v>0.2032807715443038</v>
       </c>
       <c r="G6">
-        <v>0.002889341507151283</v>
+        <v>0.01062616066698517</v>
       </c>
       <c r="H6">
-        <v>0.02159664531163911</v>
+        <v>0.02615311749040019</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.002379964636866993</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01398430505883026</v>
+        <v>0.01983491794300458</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.08752413348780622</v>
+        <v>0.08087256146190289</v>
       </c>
       <c r="O6">
-        <v>0.001411140070842918</v>
+        <v>0.009399261798086493</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.01272205525849713</v>
+        <v>0.01878725771601692</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.007130144170928466</v>
       </c>
       <c r="S6">
-        <v>0.1098204572483507</v>
+        <v>0.09937838464032402</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.005645930591167344</v>
       </c>
       <c r="U6">
-        <v>0.007681219177424844</v>
+        <v>0.01460339215191861</v>
       </c>
       <c r="V6">
-        <v>0.0551152932591016</v>
+        <v>0.05397340655496576</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.03439985229508899</v>
+        <v>0.03677970719626586</v>
       </c>
       <c r="Y6">
-        <v>0.02868329338703252</v>
+        <v>0.03203499549053048</v>
       </c>
       <c r="Z6">
-        <v>0.05045550173708574</v>
+        <v>0.05010580582935513</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.006797458871527095</v>
+        <v>0.01386987607416985</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.007670445721529513</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01348576742515438</v>
+        <v>0.01942113451414532</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.002922585434692088</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.004380160852679399</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2292832189136331</v>
+        <v>0.2006927358300276</v>
       </c>
       <c r="F7">
-        <v>0.09407438916884261</v>
+        <v>0.08653558668578956</v>
       </c>
       <c r="G7">
-        <v>0.1110127260239029</v>
+        <v>0.1008366663583837</v>
       </c>
       <c r="H7">
-        <v>0.0004462477610108365</v>
+        <v>0.007485115477909989</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1263,79 +1263,79 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.01567226188855268</v>
+        <v>0.02034047683937491</v>
       </c>
       <c r="M7">
-        <v>0.04787201471968249</v>
+        <v>0.04752680774164731</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1452884344364642</v>
+        <v>0.129775731689122</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.007095404716407202</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.008452096457880462</v>
+        <v>0.01424447332043996</v>
       </c>
       <c r="S7">
-        <v>0.01978881127667173</v>
+        <v>0.02381608966248814</v>
       </c>
       <c r="T7">
-        <v>0.05413820201975984</v>
+        <v>0.05281736516700821</v>
       </c>
       <c r="U7">
-        <v>0.01366672262426629</v>
+        <v>0.01864719508151998</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.07006685818470805</v>
+        <v>0.06626596893734991</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.03442990511601708</v>
+        <v>0.03617760137890272</v>
       </c>
       <c r="Z7">
-        <v>0.0069178816625737</v>
+        <v>0.01294913197669995</v>
       </c>
       <c r="AA7">
-        <v>0.087221621858022</v>
+        <v>0.0807497783075298</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.01915629669121869</v>
+        <v>0.02328205603462702</v>
       </c>
       <c r="AD7">
-        <v>0.004558322243269392</v>
+        <v>0.01095695012694475</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.03068981887159912</v>
+        <v>0.03301983731850647</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.006830994278684209</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.006712528925570342</v>
       </c>
       <c r="AJ7">
-        <v>0.00726417008192482</v>
+        <v>0.0132415041450665</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1349,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1129906515350862</v>
+        <v>0.1006628352545569</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0005736730791891321</v>
       </c>
       <c r="F8">
-        <v>0.3248919432741574</v>
+        <v>0.2723786163280451</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1367,73 +1367,73 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.007772372898725441</v>
       </c>
       <c r="K8">
-        <v>0.002122499761286698</v>
+        <v>0.01082000738989911</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.02670598144566798</v>
+        <v>0.0307414138348272</v>
       </c>
       <c r="N8">
-        <v>0.07223171127067399</v>
+        <v>0.06763352615600982</v>
       </c>
       <c r="O8">
-        <v>0.07478170243417812</v>
+        <v>0.06969993038025017</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.001245210456019367</v>
       </c>
       <c r="Q8">
-        <v>0.03510610811339969</v>
+        <v>0.03754851869024241</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.003617643923929022</v>
       </c>
       <c r="S8">
-        <v>0.06089293136036755</v>
+        <v>0.05844506188219982</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.001174605266816657</v>
+        <v>0.01005187406632498</v>
       </c>
       <c r="V8">
-        <v>0.0130805804415602</v>
+        <v>0.01969996922324415</v>
       </c>
       <c r="W8">
-        <v>0.02149834292715637</v>
+        <v>0.02652136539427434</v>
       </c>
       <c r="X8">
-        <v>0.04323958725855117</v>
+        <v>0.04413954375097872</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.003533237976971873</v>
       </c>
       <c r="Z8">
-        <v>0.09596772067934939</v>
+        <v>0.08686817716605291</v>
       </c>
       <c r="AA8">
-        <v>0.01580263954144162</v>
+        <v>0.02190580997404005</v>
       </c>
       <c r="AB8">
-        <v>0.02096797666967359</v>
+        <v>0.02609157916970134</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.008440932476203198</v>
+        <v>0.01594019613390248</v>
       </c>
       <c r="AE8">
-        <v>0.01428927318480741</v>
+        <v>0.02067944233915192</v>
       </c>
       <c r="AF8">
-        <v>0.03106330025600925</v>
+        <v>0.03427239940250977</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.02475151210361332</v>
+        <v>0.02915759512895369</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1459,37 +1459,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.193986046549966</v>
+        <v>0.2012902066820982</v>
       </c>
       <c r="E9">
-        <v>0.1786438391707103</v>
+        <v>0.1851754314401198</v>
       </c>
       <c r="F9">
-        <v>0.09493882529734858</v>
+        <v>0.09725539152332525</v>
       </c>
       <c r="G9">
-        <v>0.0129459521539048</v>
+        <v>0.01113370841159969</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.002346011367516524</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.011625756205607</v>
+        <v>0.009747033048903505</v>
       </c>
       <c r="L9">
-        <v>0.06344820762750607</v>
+        <v>0.06417904120187616</v>
       </c>
       <c r="M9">
-        <v>0.001021357383045717</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1238766761379425</v>
+        <v>0.1276504286098783</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1498,49 +1498,49 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.002868291652127786</v>
+        <v>0.0005485800831506732</v>
       </c>
       <c r="R9">
-        <v>0.02537433479874659</v>
+        <v>0.0241879311835934</v>
       </c>
       <c r="S9">
-        <v>0.04029084771273393</v>
+        <v>0.03985557581001054</v>
       </c>
       <c r="T9">
-        <v>0.02400465862045287</v>
+        <v>0.02274928397841098</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.0671086491683819</v>
+        <v>0.06802380690341217</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.01999699497264572</v>
+        <v>0.01853981155156961</v>
       </c>
       <c r="Y9">
-        <v>0.02746254083177083</v>
+        <v>0.02638129032998509</v>
       </c>
       <c r="Z9">
-        <v>0.04364875010612293</v>
+        <v>0.04338256778817464</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.01009751856923567</v>
+        <v>0.008141839909632369</v>
       </c>
       <c r="AC9">
-        <v>0.01238486842080773</v>
+        <v>0.01054437090446791</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.03260814882657146</v>
+        <v>0.03178600910804412</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.01132172442685512</v>
+        <v>0.009427691531748035</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1988540320646729</v>
+        <v>0.1834141145441146</v>
       </c>
       <c r="E10">
-        <v>0.06965070396710306</v>
+        <v>0.06724502920048211</v>
       </c>
       <c r="F10">
-        <v>0.1358158410711957</v>
+        <v>0.1267353192123154</v>
       </c>
       <c r="G10">
-        <v>0.006152263830569653</v>
+        <v>0.01015241541085924</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1590,79 +1590,79 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.01170190227478735</v>
+        <v>0.01514219726512987</v>
       </c>
       <c r="L10">
-        <v>0.04201164203131198</v>
+        <v>0.04239424097301348</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1473342503636893</v>
+        <v>0.1370917325634645</v>
       </c>
       <c r="O10">
-        <v>0.007383888863676438</v>
+        <v>0.01125979209913069</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.01831648096308858</v>
+        <v>0.02108948645239572</v>
       </c>
       <c r="R10">
-        <v>0.02117276378901272</v>
+        <v>0.02365762280194671</v>
       </c>
       <c r="S10">
-        <v>0.06755243545549391</v>
+        <v>0.06535843744322564</v>
       </c>
       <c r="T10">
-        <v>0.0160492635212033</v>
+        <v>0.01905098960887751</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.05982115054705688</v>
+        <v>0.05840709718312088</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.03269358441674861</v>
+        <v>0.03401620422890073</v>
       </c>
       <c r="Y10">
-        <v>0.0004614332732031369</v>
+        <v>0.00503568513440983</v>
       </c>
       <c r="Z10">
-        <v>0.08813558481449985</v>
+        <v>0.08386512507840325</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02454386834303442</v>
+        <v>0.02668864482285563</v>
       </c>
       <c r="AC10">
-        <v>0.0003184417548803606</v>
+        <v>0.004907118833989844</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.0355425654284788</v>
+        <v>0.03657777538319901</v>
       </c>
       <c r="AF10">
-        <v>0.003225033501748069</v>
+        <v>0.00752048885837487</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.003844791132613498</v>
       </c>
       <c r="AI10">
-        <v>0.01326286972454487</v>
+        <v>0.01654569176917682</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1679,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.186314361635917</v>
+        <v>0.1703132155112756</v>
       </c>
       <c r="E11">
-        <v>0.1783129619679877</v>
+        <v>0.1632566097990202</v>
       </c>
       <c r="F11">
-        <v>0.05581812392977374</v>
+        <v>0.0552257889806465</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.002531270652409672</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1700,79 +1700,79 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.004778098981201632</v>
       </c>
       <c r="L11">
-        <v>0.04896967811916524</v>
+        <v>0.04918599796496807</v>
       </c>
       <c r="M11">
-        <v>0.006804712120033768</v>
+        <v>0.01199981151322586</v>
       </c>
       <c r="N11">
-        <v>0.1399804087345639</v>
+        <v>0.1294503102341446</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.001858904032029442</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.0003576850563788324</v>
       </c>
       <c r="R11">
-        <v>0.03157084956095623</v>
+        <v>0.03384159847414945</v>
       </c>
       <c r="S11">
-        <v>0.02628740681755598</v>
+        <v>0.02918201717703106</v>
       </c>
       <c r="T11">
-        <v>0.01726131133512003</v>
+        <v>0.02122171028272441</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.07536033535755536</v>
+        <v>0.07246048372338205</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.03443072970759244</v>
+        <v>0.0363637880180623</v>
       </c>
       <c r="Y11">
-        <v>0.02239987436689955</v>
+        <v>0.02575351905965356</v>
       </c>
       <c r="Z11">
-        <v>0.09098122660098146</v>
+        <v>0.08623688222284712</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.02209139441855666</v>
+        <v>0.02548146398729945</v>
       </c>
       <c r="AC11">
-        <v>0.01438170729951912</v>
+        <v>0.01868212581875851</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.03816866043873077</v>
+        <v>0.03966034917536693</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.0005780037217148673</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.005842581653868572</v>
+        <v>0.01115128805167587</v>
       </c>
       <c r="AI11">
-        <v>0.005023675935222437</v>
+        <v>0.01042907756203382</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1912,97 +1912,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.220926448265725</v>
+        <v>0.1881699479791127</v>
       </c>
       <c r="E2">
-        <v>0.4054152759914777</v>
+        <v>0.3468075426113604</v>
       </c>
       <c r="F2">
-        <v>0.5514669988747417</v>
+        <v>0.4742922204225544</v>
       </c>
       <c r="G2">
-        <v>0.5514669988747417</v>
+        <v>0.48305626533538</v>
       </c>
       <c r="H2">
-        <v>0.5514669988747417</v>
+        <v>0.4884150136023059</v>
       </c>
       <c r="I2">
-        <v>0.5514669988747417</v>
+        <v>0.4884150136023059</v>
       </c>
       <c r="J2">
-        <v>0.5514669988747417</v>
+        <v>0.4884150136023059</v>
       </c>
       <c r="K2">
-        <v>0.5514669988747417</v>
+        <v>0.4884150136023059</v>
       </c>
       <c r="L2">
-        <v>0.6020387008685726</v>
+        <v>0.5385140204315128</v>
       </c>
       <c r="M2">
-        <v>0.6020387008685726</v>
+        <v>0.5388930712068284</v>
       </c>
       <c r="N2">
-        <v>0.7080627200701265</v>
+        <v>0.6339356665967761</v>
       </c>
       <c r="O2">
-        <v>0.7179507071192078</v>
+        <v>0.6510608999631016</v>
       </c>
       <c r="P2">
-        <v>0.7179507071192078</v>
+        <v>0.6510608999631016</v>
       </c>
       <c r="Q2">
-        <v>0.7196390012110403</v>
+        <v>0.6615403582716505</v>
       </c>
       <c r="R2">
-        <v>0.7407849589529381</v>
+        <v>0.6877900724229981</v>
       </c>
       <c r="S2">
-        <v>0.8131080832794686</v>
+        <v>0.7555184052237373</v>
       </c>
       <c r="T2">
-        <v>0.8168072157825753</v>
+        <v>0.7676276294062694</v>
       </c>
       <c r="U2">
-        <v>0.8168072157825753</v>
+        <v>0.7719614311322029</v>
       </c>
       <c r="V2">
-        <v>0.862063971340187</v>
+        <v>0.8177527231916734</v>
       </c>
       <c r="W2">
-        <v>0.862063971340187</v>
+        <v>0.81980796587664</v>
       </c>
       <c r="X2">
-        <v>0.8856587219701311</v>
+        <v>0.8480424039416619</v>
       </c>
       <c r="Y2">
-        <v>0.9092537253045664</v>
+        <v>0.8762770468213291</v>
       </c>
       <c r="Z2">
-        <v>0.9653731977396699</v>
+        <v>0.9308724701160189</v>
       </c>
       <c r="AA2">
-        <v>0.9653731977396699</v>
+        <v>0.9308724701160189</v>
       </c>
       <c r="AB2">
-        <v>0.9814008195371611</v>
+        <v>0.9529738204769167</v>
       </c>
       <c r="AC2">
-        <v>0.9835040608012887</v>
+        <v>0.9637895896183604</v>
       </c>
       <c r="AD2">
-        <v>0.9835040608012887</v>
+        <v>0.9637895896183604</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9862705068874801</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9886114063731716</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9886114063731716</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9935868755312427</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -2022,103 +2022,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1376808949027615</v>
+        <v>0.1273691491508393</v>
       </c>
       <c r="E3">
-        <v>0.1376808949027615</v>
+        <v>0.1273691491508393</v>
       </c>
       <c r="F3">
-        <v>0.5613810759934331</v>
+        <v>0.5039245900298179</v>
       </c>
       <c r="G3">
-        <v>0.5613810759934331</v>
+        <v>0.5039245900298179</v>
       </c>
       <c r="H3">
-        <v>0.5896816008336093</v>
+        <v>0.5359991554935962</v>
       </c>
       <c r="I3">
-        <v>0.5896816008336093</v>
+        <v>0.5365243357209182</v>
       </c>
       <c r="J3">
-        <v>0.5896816008336093</v>
+        <v>0.5365243357209182</v>
       </c>
       <c r="K3">
-        <v>0.5896816008336093</v>
+        <v>0.5365243357209182</v>
       </c>
       <c r="L3">
-        <v>0.5899352083690638</v>
+        <v>0.5441638100734706</v>
       </c>
       <c r="M3">
-        <v>0.5899352083690638</v>
+        <v>0.5441638100734706</v>
       </c>
       <c r="N3">
-        <v>0.6651469094048468</v>
+        <v>0.6171084238217158</v>
       </c>
       <c r="O3">
-        <v>0.6916561259835693</v>
+        <v>0.6476223621370145</v>
       </c>
       <c r="P3">
-        <v>0.6916561259835693</v>
+        <v>0.6476223621370145</v>
       </c>
       <c r="Q3">
-        <v>0.7017415120643259</v>
+        <v>0.6638274981603206</v>
       </c>
       <c r="R3">
-        <v>0.7017415120643259</v>
+        <v>0.6638274981603206</v>
       </c>
       <c r="S3">
-        <v>0.8267503334302868</v>
+        <v>0.7801564581853572</v>
       </c>
       <c r="T3">
-        <v>0.8267503334302868</v>
+        <v>0.7801564581853572</v>
       </c>
       <c r="U3">
-        <v>0.8604317366168364</v>
+        <v>0.8169189631907093</v>
       </c>
       <c r="V3">
-        <v>0.8831137801525596</v>
+        <v>0.844098584190915</v>
       </c>
       <c r="W3">
-        <v>0.8831137801525596</v>
+        <v>0.8489659974777659</v>
       </c>
       <c r="X3">
-        <v>0.9210872582964172</v>
+        <v>0.8894678525692105</v>
       </c>
       <c r="Y3">
-        <v>0.9210872582964172</v>
+        <v>0.8926688473228632</v>
       </c>
       <c r="Z3">
-        <v>0.9876915034702045</v>
+        <v>0.9581144562450661</v>
       </c>
       <c r="AA3">
-        <v>0.9876915034702045</v>
+        <v>0.959365025212524</v>
       </c>
       <c r="AB3">
-        <v>0.9889987915499877</v>
+        <v>0.9679224892258675</v>
       </c>
       <c r="AC3">
-        <v>0.9889987915499877</v>
+        <v>0.9679224892258675</v>
       </c>
       <c r="AD3">
-        <v>0.9889987915499877</v>
+        <v>0.9704036545318357</v>
       </c>
       <c r="AE3">
-        <v>0.997665327930665</v>
+        <v>0.9853726574957437</v>
       </c>
       <c r="AF3">
-        <v>0.997665327930665</v>
+        <v>0.9905474564626512</v>
       </c>
       <c r="AG3">
-        <v>0.997665327930665</v>
+        <v>0.9905474564626512</v>
       </c>
       <c r="AH3">
-        <v>0.997665327930665</v>
+        <v>0.9905474564626512</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1641449435294445</v>
+        <v>0.1467340273087929</v>
       </c>
       <c r="E4">
-        <v>0.1641449435294445</v>
+        <v>0.1467340273087929</v>
       </c>
       <c r="F4">
-        <v>0.5267333589380712</v>
+        <v>0.4595032237902353</v>
       </c>
       <c r="G4">
-        <v>0.5267333589380712</v>
+        <v>0.4621414338301781</v>
       </c>
       <c r="H4">
-        <v>0.5623910649243554</v>
+        <v>0.5013717976524071</v>
       </c>
       <c r="I4">
-        <v>0.5623910649243554</v>
+        <v>0.5028507953565102</v>
       </c>
       <c r="J4">
-        <v>0.5623910649243554</v>
+        <v>0.5028507953565102</v>
       </c>
       <c r="K4">
-        <v>0.5623910649243554</v>
+        <v>0.5028507953565102</v>
       </c>
       <c r="L4">
-        <v>0.5684373404841728</v>
+        <v>0.5173056459620793</v>
       </c>
       <c r="M4">
-        <v>0.5684373404841728</v>
+        <v>0.5173056459620793</v>
       </c>
       <c r="N4">
-        <v>0.6470902814566596</v>
+        <v>0.5925095847623666</v>
       </c>
       <c r="O4">
-        <v>0.6488402000997675</v>
+        <v>0.6033697273095812</v>
       </c>
       <c r="P4">
-        <v>0.6488402000997675</v>
+        <v>0.6033697273095812</v>
       </c>
       <c r="Q4">
-        <v>0.671633506463292</v>
+        <v>0.6318366089802285</v>
       </c>
       <c r="R4">
-        <v>0.671633506463292</v>
+        <v>0.6318366089802285</v>
       </c>
       <c r="S4">
-        <v>0.8204197766592868</v>
+        <v>0.7657202265424143</v>
       </c>
       <c r="T4">
-        <v>0.8204197766592868</v>
+        <v>0.7657202265424143</v>
       </c>
       <c r="U4">
-        <v>0.854434692972343</v>
+        <v>0.8035760888064587</v>
       </c>
       <c r="V4">
-        <v>0.8908922037461751</v>
+        <v>0.8434756392839506</v>
       </c>
       <c r="W4">
-        <v>0.8908922037461751</v>
+        <v>0.8447873351307862</v>
       </c>
       <c r="X4">
-        <v>0.9325732587551872</v>
+        <v>0.8890573596911795</v>
       </c>
       <c r="Y4">
-        <v>0.9389435301433288</v>
+        <v>0.9037832935511264</v>
       </c>
       <c r="Z4">
-        <v>0.9881883771153047</v>
+        <v>0.9543818481773615</v>
       </c>
       <c r="AA4">
-        <v>0.9881883771153047</v>
+        <v>0.9543818481773615</v>
       </c>
       <c r="AB4">
-        <v>0.9881883771153047</v>
+        <v>0.9606623730905534</v>
       </c>
       <c r="AC4">
-        <v>0.9881883771153047</v>
+        <v>0.9632228748091194</v>
       </c>
       <c r="AD4">
-        <v>0.9881883771153047</v>
+        <v>0.9640851106381173</v>
       </c>
       <c r="AE4">
-        <v>0.9997747984610585</v>
+        <v>0.9831753318814724</v>
       </c>
       <c r="AF4">
-        <v>0.9997747984610585</v>
+        <v>0.985842519045576</v>
       </c>
       <c r="AG4">
-        <v>0.9997747984610585</v>
+        <v>0.985842519045576</v>
       </c>
       <c r="AH4">
-        <v>0.9997747984610585</v>
+        <v>0.9904155691702502</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2242,103 +2242,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.001060747944511756</v>
+        <v>0.0104078689436532</v>
       </c>
       <c r="E5">
-        <v>0.1460055818363045</v>
+        <v>0.1334991186721849</v>
       </c>
       <c r="F5">
-        <v>0.4124631623409375</v>
+        <v>0.351753547890963</v>
       </c>
       <c r="G5">
-        <v>0.5202550829578054</v>
+        <v>0.4457483492787111</v>
       </c>
       <c r="H5">
-        <v>0.5247923748640102</v>
+        <v>0.4588788871295731</v>
       </c>
       <c r="I5">
-        <v>0.5247923748640102</v>
+        <v>0.4669258472806781</v>
       </c>
       <c r="J5">
-        <v>0.5247923748640102</v>
+        <v>0.4669258472806781</v>
       </c>
       <c r="K5">
-        <v>0.5247923748640102</v>
+        <v>0.4669258472806781</v>
       </c>
       <c r="L5">
-        <v>0.5247923748640102</v>
+        <v>0.4669258472806781</v>
       </c>
       <c r="M5">
-        <v>0.5587901521946151</v>
+        <v>0.5031284787222197</v>
       </c>
       <c r="N5">
-        <v>0.5587901521946151</v>
+        <v>0.509863320642155</v>
       </c>
       <c r="O5">
-        <v>0.6713322538167508</v>
+        <v>0.6075782447348547</v>
       </c>
       <c r="P5">
-        <v>0.6721106302708788</v>
+        <v>0.6177649733490251</v>
       </c>
       <c r="Q5">
-        <v>0.6721106302708788</v>
+        <v>0.6177649733490251</v>
       </c>
       <c r="R5">
-        <v>0.6783119922494373</v>
+        <v>0.6321987341406401</v>
       </c>
       <c r="S5">
-        <v>0.7022555932043868</v>
+        <v>0.6605273983011064</v>
       </c>
       <c r="T5">
-        <v>0.7754441444981435</v>
+        <v>0.7274224365968848</v>
       </c>
       <c r="U5">
-        <v>0.7882619010694991</v>
+        <v>0.7470378525132807</v>
       </c>
       <c r="V5">
-        <v>0.7882619010694991</v>
+        <v>0.748852402109396</v>
       </c>
       <c r="W5">
-        <v>0.8399011415818645</v>
+        <v>0.7988710139647901</v>
       </c>
       <c r="X5">
-        <v>0.8399011415818645</v>
+        <v>0.8058366739530405</v>
       </c>
       <c r="Y5">
-        <v>0.8600268220180116</v>
+        <v>0.8311753188296213</v>
       </c>
       <c r="Z5">
-        <v>0.9096666036473563</v>
+        <v>0.8796280466944699</v>
       </c>
       <c r="AA5">
-        <v>0.9638950993286132</v>
+        <v>0.931674443792579</v>
       </c>
       <c r="AB5">
-        <v>0.9638950993286132</v>
+        <v>0.9340756461882795</v>
       </c>
       <c r="AC5">
-        <v>0.9752464059199611</v>
+        <v>0.9525426061068404</v>
       </c>
       <c r="AD5">
-        <v>0.983483779429757</v>
+        <v>0.9685708772374296</v>
       </c>
       <c r="AE5">
-        <v>0.983483779429757</v>
+        <v>0.9691846546259552</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9916965369886718</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9926551209660897</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9926551209660897</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2352,103 +2352,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2364675958786759</v>
+        <v>0.2044947965975816</v>
       </c>
       <c r="E6">
-        <v>0.3184286307356462</v>
+        <v>0.2807500175197609</v>
       </c>
       <c r="F6">
-        <v>0.5534335359044671</v>
+        <v>0.4840307890640647</v>
       </c>
       <c r="G6">
-        <v>0.5563228774116183</v>
+        <v>0.4946569497310499</v>
       </c>
       <c r="H6">
-        <v>0.5779195227232574</v>
+        <v>0.5208100672214501</v>
       </c>
       <c r="I6">
-        <v>0.5779195227232574</v>
+        <v>0.5208100672214501</v>
       </c>
       <c r="J6">
-        <v>0.5779195227232574</v>
+        <v>0.523190031858317</v>
       </c>
       <c r="K6">
-        <v>0.5779195227232574</v>
+        <v>0.523190031858317</v>
       </c>
       <c r="L6">
-        <v>0.5919038277820877</v>
+        <v>0.5430249498013217</v>
       </c>
       <c r="M6">
-        <v>0.5919038277820877</v>
+        <v>0.5430249498013217</v>
       </c>
       <c r="N6">
-        <v>0.6794279612698939</v>
+        <v>0.6238975112632246</v>
       </c>
       <c r="O6">
-        <v>0.6808391013407368</v>
+        <v>0.633296773061311</v>
       </c>
       <c r="P6">
-        <v>0.6808391013407368</v>
+        <v>0.633296773061311</v>
       </c>
       <c r="Q6">
-        <v>0.6935611565992339</v>
+        <v>0.652084030777328</v>
       </c>
       <c r="R6">
-        <v>0.6935611565992339</v>
+        <v>0.6592141749482565</v>
       </c>
       <c r="S6">
-        <v>0.8033816138475847</v>
+        <v>0.7585925595885805</v>
       </c>
       <c r="T6">
-        <v>0.8033816138475847</v>
+        <v>0.7642384901797479</v>
       </c>
       <c r="U6">
-        <v>0.8110628330250095</v>
+        <v>0.7788418823316665</v>
       </c>
       <c r="V6">
-        <v>0.8661781262841111</v>
+        <v>0.8328152888866323</v>
       </c>
       <c r="W6">
-        <v>0.8661781262841111</v>
+        <v>0.8328152888866323</v>
       </c>
       <c r="X6">
-        <v>0.9005779785792001</v>
+        <v>0.8695949960828981</v>
       </c>
       <c r="Y6">
-        <v>0.9292612719662325</v>
+        <v>0.9016299915734286</v>
       </c>
       <c r="Z6">
-        <v>0.9797167737033183</v>
+        <v>0.9517357974027837</v>
       </c>
       <c r="AA6">
-        <v>0.9797167737033183</v>
+        <v>0.9517357974027837</v>
       </c>
       <c r="AB6">
-        <v>0.9865142325748454</v>
+        <v>0.9656056734769536</v>
       </c>
       <c r="AC6">
-        <v>0.9865142325748454</v>
+        <v>0.9732761191984831</v>
       </c>
       <c r="AD6">
-        <v>0.9865142325748454</v>
+        <v>0.9732761191984831</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999998</v>
+        <v>0.9926972537126284</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999998</v>
+        <v>0.9926972537126284</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999998</v>
+        <v>0.9926972537126284</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>0.9956198391473204</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2465,100 +2465,100 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2292832189136331</v>
+        <v>0.2006927358300276</v>
       </c>
       <c r="F7">
-        <v>0.3233576080824757</v>
+        <v>0.2872283225158171</v>
       </c>
       <c r="G7">
-        <v>0.4343703341063786</v>
+        <v>0.3880649888742008</v>
       </c>
       <c r="H7">
-        <v>0.4348165818673894</v>
+        <v>0.3955501043521108</v>
       </c>
       <c r="I7">
-        <v>0.4348165818673894</v>
+        <v>0.3955501043521108</v>
       </c>
       <c r="J7">
-        <v>0.4348165818673894</v>
+        <v>0.3955501043521108</v>
       </c>
       <c r="K7">
-        <v>0.4348165818673894</v>
+        <v>0.3955501043521108</v>
       </c>
       <c r="L7">
-        <v>0.4504888437559421</v>
+        <v>0.4158905811914857</v>
       </c>
       <c r="M7">
-        <v>0.4983608584756246</v>
+        <v>0.463417388933133</v>
       </c>
       <c r="N7">
-        <v>0.4983608584756246</v>
+        <v>0.463417388933133</v>
       </c>
       <c r="O7">
-        <v>0.6436492929120887</v>
+        <v>0.5931931206222549</v>
       </c>
       <c r="P7">
-        <v>0.6436492929120887</v>
+        <v>0.6002885253386622</v>
       </c>
       <c r="Q7">
-        <v>0.6436492929120887</v>
+        <v>0.6002885253386622</v>
       </c>
       <c r="R7">
-        <v>0.6521013893699692</v>
+        <v>0.6145329986591022</v>
       </c>
       <c r="S7">
-        <v>0.671890200646641</v>
+        <v>0.6383490883215903</v>
       </c>
       <c r="T7">
-        <v>0.7260284026664008</v>
+        <v>0.6911664534885985</v>
       </c>
       <c r="U7">
-        <v>0.7396951252906671</v>
+        <v>0.7098136485701185</v>
       </c>
       <c r="V7">
-        <v>0.7396951252906671</v>
+        <v>0.7098136485701185</v>
       </c>
       <c r="W7">
-        <v>0.8097619834753751</v>
+        <v>0.7760796175074685</v>
       </c>
       <c r="X7">
-        <v>0.8097619834753751</v>
+        <v>0.7760796175074685</v>
       </c>
       <c r="Y7">
-        <v>0.8441918885913922</v>
+        <v>0.8122572188863711</v>
       </c>
       <c r="Z7">
-        <v>0.8511097702539658</v>
+        <v>0.8252063508630711</v>
       </c>
       <c r="AA7">
-        <v>0.9383313921119878</v>
+        <v>0.905956129170601</v>
       </c>
       <c r="AB7">
-        <v>0.9383313921119878</v>
+        <v>0.905956129170601</v>
       </c>
       <c r="AC7">
-        <v>0.9574876888032064</v>
+        <v>0.9292381852052279</v>
       </c>
       <c r="AD7">
-        <v>0.9620460110464758</v>
+        <v>0.9401951353321727</v>
       </c>
       <c r="AE7">
-        <v>0.9620460110464758</v>
+        <v>0.9401951353321727</v>
       </c>
       <c r="AF7">
-        <v>0.992735829918075</v>
+        <v>0.9732149726506791</v>
       </c>
       <c r="AG7">
-        <v>0.992735829918075</v>
+        <v>0.9800459669293633</v>
       </c>
       <c r="AH7">
-        <v>0.992735829918075</v>
+        <v>0.9800459669293633</v>
       </c>
       <c r="AI7">
-        <v>0.992735829918075</v>
+        <v>0.9867584958549337</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1129906515350862</v>
+        <v>0.1006628352545569</v>
       </c>
       <c r="E8">
-        <v>0.1129906515350862</v>
+        <v>0.101236508333746</v>
       </c>
       <c r="F8">
-        <v>0.4378825948092436</v>
+        <v>0.3736151246617911</v>
       </c>
       <c r="G8">
-        <v>0.4378825948092436</v>
+        <v>0.3736151246617911</v>
       </c>
       <c r="H8">
-        <v>0.4378825948092436</v>
+        <v>0.3736151246617911</v>
       </c>
       <c r="I8">
-        <v>0.4378825948092436</v>
+        <v>0.3736151246617911</v>
       </c>
       <c r="J8">
-        <v>0.4378825948092436</v>
+        <v>0.3813874975605166</v>
       </c>
       <c r="K8">
-        <v>0.4400050945705303</v>
+        <v>0.3922075049504157</v>
       </c>
       <c r="L8">
-        <v>0.4400050945705303</v>
+        <v>0.3922075049504157</v>
       </c>
       <c r="M8">
-        <v>0.4667110760161983</v>
+        <v>0.4229489187852429</v>
       </c>
       <c r="N8">
-        <v>0.5389427872868723</v>
+        <v>0.4905824449412527</v>
       </c>
       <c r="O8">
-        <v>0.6137244897210504</v>
+        <v>0.5602823753215028</v>
       </c>
       <c r="P8">
-        <v>0.6137244897210504</v>
+        <v>0.5615275857775222</v>
       </c>
       <c r="Q8">
-        <v>0.6488305978344501</v>
+        <v>0.5990761044677646</v>
       </c>
       <c r="R8">
-        <v>0.6488305978344501</v>
+        <v>0.6026937483916937</v>
       </c>
       <c r="S8">
-        <v>0.7097235291948176</v>
+        <v>0.6611388102738934</v>
       </c>
       <c r="T8">
-        <v>0.7097235291948176</v>
+        <v>0.6611388102738934</v>
       </c>
       <c r="U8">
-        <v>0.7108981344616343</v>
+        <v>0.6711906843402184</v>
       </c>
       <c r="V8">
-        <v>0.7239787149031945</v>
+        <v>0.6908906535634626</v>
       </c>
       <c r="W8">
-        <v>0.7454770578303509</v>
+        <v>0.7174120189577369</v>
       </c>
       <c r="X8">
-        <v>0.788716645088902</v>
+        <v>0.7615515627087156</v>
       </c>
       <c r="Y8">
-        <v>0.788716645088902</v>
+        <v>0.7650848006856875</v>
       </c>
       <c r="Z8">
-        <v>0.8846843657682515</v>
+        <v>0.8519529778517404</v>
       </c>
       <c r="AA8">
-        <v>0.9004870053096932</v>
+        <v>0.8738587878257804</v>
       </c>
       <c r="AB8">
-        <v>0.9214549819793667</v>
+        <v>0.8999503669954818</v>
       </c>
       <c r="AC8">
-        <v>0.9214549819793667</v>
+        <v>0.8999503669954818</v>
       </c>
       <c r="AD8">
-        <v>0.9298959144555698</v>
+        <v>0.9158905631293843</v>
       </c>
       <c r="AE8">
-        <v>0.9441851876403773</v>
+        <v>0.9365700054685363</v>
       </c>
       <c r="AF8">
-        <v>0.9752484878963865</v>
+        <v>0.9708424048710461</v>
       </c>
       <c r="AG8">
-        <v>0.9752484878963865</v>
+        <v>0.9708424048710461</v>
       </c>
       <c r="AH8">
-        <v>0.9752484878963865</v>
+        <v>0.9708424048710461</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,94 +2682,94 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.193986046549966</v>
+        <v>0.2012902066820982</v>
       </c>
       <c r="E9">
-        <v>0.3726298857206762</v>
+        <v>0.386465638122218</v>
       </c>
       <c r="F9">
-        <v>0.4675687110180248</v>
+        <v>0.4837210296455433</v>
       </c>
       <c r="G9">
-        <v>0.4805146631719296</v>
+        <v>0.4948547380571429</v>
       </c>
       <c r="H9">
-        <v>0.4805146631719296</v>
+        <v>0.4948547380571429</v>
       </c>
       <c r="I9">
-        <v>0.4828606745394461</v>
+        <v>0.4948547380571429</v>
       </c>
       <c r="J9">
-        <v>0.4828606745394461</v>
+        <v>0.4948547380571429</v>
       </c>
       <c r="K9">
-        <v>0.4944864307450532</v>
+        <v>0.5046017711060464</v>
       </c>
       <c r="L9">
-        <v>0.5579346383725592</v>
+        <v>0.5687808123079225</v>
       </c>
       <c r="M9">
-        <v>0.558955995755605</v>
+        <v>0.5687808123079225</v>
       </c>
       <c r="N9">
-        <v>0.6828326718935475</v>
+        <v>0.6964312409178008</v>
       </c>
       <c r="O9">
-        <v>0.6828326718935475</v>
+        <v>0.6964312409178008</v>
       </c>
       <c r="P9">
-        <v>0.6828326718935475</v>
+        <v>0.6964312409178008</v>
       </c>
       <c r="Q9">
-        <v>0.6857009635456752</v>
+        <v>0.6969798210009515</v>
       </c>
       <c r="R9">
-        <v>0.7110752983444218</v>
+        <v>0.7211677521845449</v>
       </c>
       <c r="S9">
-        <v>0.7513661460571558</v>
+        <v>0.7610233279945554</v>
       </c>
       <c r="T9">
-        <v>0.7753708046776087</v>
+        <v>0.7837726119729664</v>
       </c>
       <c r="U9">
-        <v>0.7753708046776087</v>
+        <v>0.7837726119729664</v>
       </c>
       <c r="V9">
-        <v>0.8424794538459905</v>
+        <v>0.8517964188763786</v>
       </c>
       <c r="W9">
-        <v>0.8424794538459905</v>
+        <v>0.8517964188763786</v>
       </c>
       <c r="X9">
-        <v>0.8624764488186363</v>
+        <v>0.8703362304279482</v>
       </c>
       <c r="Y9">
-        <v>0.8899389896504071</v>
+        <v>0.8967175207579332</v>
       </c>
       <c r="Z9">
-        <v>0.93358773975653</v>
+        <v>0.9401000885461078</v>
       </c>
       <c r="AA9">
-        <v>0.93358773975653</v>
+        <v>0.9401000885461078</v>
       </c>
       <c r="AB9">
-        <v>0.9436852583257657</v>
+        <v>0.9482419284557402</v>
       </c>
       <c r="AC9">
-        <v>0.9560701267465734</v>
+        <v>0.9587862993602081</v>
       </c>
       <c r="AD9">
-        <v>0.9560701267465734</v>
+        <v>0.9587862993602081</v>
       </c>
       <c r="AE9">
-        <v>0.9886782755731449</v>
+        <v>0.9905723084682522</v>
       </c>
       <c r="AF9">
-        <v>0.9886782755731449</v>
+        <v>0.9905723084682522</v>
       </c>
       <c r="AG9">
-        <v>0.9886782755731449</v>
+        <v>0.9905723084682522</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -2792,103 +2792,103 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1988540320646729</v>
+        <v>0.1834141145441146</v>
       </c>
       <c r="E10">
-        <v>0.268504736031776</v>
+        <v>0.2506591437445967</v>
       </c>
       <c r="F10">
-        <v>0.4043205771029716</v>
+        <v>0.377394462956912</v>
       </c>
       <c r="G10">
-        <v>0.4104728409335413</v>
+        <v>0.3875468783677713</v>
       </c>
       <c r="H10">
-        <v>0.4104728409335413</v>
+        <v>0.3875468783677713</v>
       </c>
       <c r="I10">
-        <v>0.4104728409335413</v>
+        <v>0.3875468783677713</v>
       </c>
       <c r="J10">
-        <v>0.4104728409335413</v>
+        <v>0.3875468783677713</v>
       </c>
       <c r="K10">
-        <v>0.4221747432083287</v>
+        <v>0.4026890756329012</v>
       </c>
       <c r="L10">
-        <v>0.4641863852396406</v>
+        <v>0.4450833166059147</v>
       </c>
       <c r="M10">
-        <v>0.4641863852396406</v>
+        <v>0.4450833166059147</v>
       </c>
       <c r="N10">
-        <v>0.6115206356033299</v>
+        <v>0.5821750491693792</v>
       </c>
       <c r="O10">
-        <v>0.6189045244670064</v>
+        <v>0.5934348412685099</v>
       </c>
       <c r="P10">
-        <v>0.6189045244670064</v>
+        <v>0.5934348412685099</v>
       </c>
       <c r="Q10">
-        <v>0.637221005430095</v>
+        <v>0.6145243277209056</v>
       </c>
       <c r="R10">
-        <v>0.6583937692191076</v>
+        <v>0.6381819505228523</v>
       </c>
       <c r="S10">
-        <v>0.7259462046746016</v>
+        <v>0.703540387966078</v>
       </c>
       <c r="T10">
-        <v>0.7419954681958049</v>
+        <v>0.7225913775749555</v>
       </c>
       <c r="U10">
-        <v>0.7419954681958049</v>
+        <v>0.7225913775749555</v>
       </c>
       <c r="V10">
-        <v>0.8018166187428617</v>
+        <v>0.7809984747580764</v>
       </c>
       <c r="W10">
-        <v>0.8018166187428617</v>
+        <v>0.7809984747580764</v>
       </c>
       <c r="X10">
-        <v>0.8345102031596103</v>
+        <v>0.8150146789869771</v>
       </c>
       <c r="Y10">
-        <v>0.8349716364328135</v>
+        <v>0.820050364121387</v>
       </c>
       <c r="Z10">
-        <v>0.9231072212473133</v>
+        <v>0.9039154891997903</v>
       </c>
       <c r="AA10">
-        <v>0.9231072212473133</v>
+        <v>0.9039154891997903</v>
       </c>
       <c r="AB10">
-        <v>0.9476510895903477</v>
+        <v>0.9306041340226459</v>
       </c>
       <c r="AC10">
-        <v>0.9479695313452281</v>
+        <v>0.9355112528566357</v>
       </c>
       <c r="AD10">
-        <v>0.9479695313452281</v>
+        <v>0.9355112528566357</v>
       </c>
       <c r="AE10">
-        <v>0.9835120967737069</v>
+        <v>0.9720890282398348</v>
       </c>
       <c r="AF10">
-        <v>0.986737130275455</v>
+        <v>0.9796095170982096</v>
       </c>
       <c r="AG10">
-        <v>0.986737130275455</v>
+        <v>0.9796095170982096</v>
       </c>
       <c r="AH10">
-        <v>0.986737130275455</v>
+        <v>0.9834543082308231</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.186314361635917</v>
+        <v>0.1703132155112756</v>
       </c>
       <c r="E11">
-        <v>0.3646273236039047</v>
+        <v>0.3335698253102958</v>
       </c>
       <c r="F11">
-        <v>0.4204454475336785</v>
+        <v>0.3887956142909423</v>
       </c>
       <c r="G11">
-        <v>0.4204454475336785</v>
+        <v>0.3913268849433519</v>
       </c>
       <c r="H11">
-        <v>0.4204454475336785</v>
+        <v>0.3913268849433519</v>
       </c>
       <c r="I11">
-        <v>0.4204454475336785</v>
+        <v>0.3913268849433519</v>
       </c>
       <c r="J11">
-        <v>0.4204454475336785</v>
+        <v>0.3913268849433519</v>
       </c>
       <c r="K11">
-        <v>0.4204454475336785</v>
+        <v>0.3961049839245536</v>
       </c>
       <c r="L11">
-        <v>0.4694151256528437</v>
+        <v>0.4452909818895217</v>
       </c>
       <c r="M11">
-        <v>0.4762198377728775</v>
+        <v>0.4572907934027475</v>
       </c>
       <c r="N11">
-        <v>0.6162002465074413</v>
+        <v>0.5867411036368921</v>
       </c>
       <c r="O11">
-        <v>0.6162002465074413</v>
+        <v>0.5886000076689216</v>
       </c>
       <c r="P11">
-        <v>0.6162002465074413</v>
+        <v>0.5886000076689216</v>
       </c>
       <c r="Q11">
-        <v>0.6162002465074413</v>
+        <v>0.5889576927253004</v>
       </c>
       <c r="R11">
-        <v>0.6477710960683976</v>
+        <v>0.6227992911994499</v>
       </c>
       <c r="S11">
-        <v>0.6740585028859536</v>
+        <v>0.6519813083764809</v>
       </c>
       <c r="T11">
-        <v>0.6913198142210736</v>
+        <v>0.6732030186592054</v>
       </c>
       <c r="U11">
-        <v>0.6913198142210736</v>
+        <v>0.6732030186592054</v>
       </c>
       <c r="V11">
-        <v>0.766680149578629</v>
+        <v>0.7456635023825875</v>
       </c>
       <c r="W11">
-        <v>0.766680149578629</v>
+        <v>0.7456635023825875</v>
       </c>
       <c r="X11">
-        <v>0.8011108792862214</v>
+        <v>0.7820272904006498</v>
       </c>
       <c r="Y11">
-        <v>0.8235107536531209</v>
+        <v>0.8077808094603033</v>
       </c>
       <c r="Z11">
-        <v>0.9144919802541023</v>
+        <v>0.8940176916831504</v>
       </c>
       <c r="AA11">
-        <v>0.9144919802541023</v>
+        <v>0.8940176916831504</v>
       </c>
       <c r="AB11">
-        <v>0.936583374672659</v>
+        <v>0.9194991556704498</v>
       </c>
       <c r="AC11">
-        <v>0.9509650819721781</v>
+        <v>0.9381812814892083</v>
       </c>
       <c r="AD11">
-        <v>0.9509650819721781</v>
+        <v>0.9381812814892083</v>
       </c>
       <c r="AE11">
-        <v>0.9891337424109089</v>
+        <v>0.9778416306645752</v>
       </c>
       <c r="AF11">
-        <v>0.9891337424109089</v>
+        <v>0.9784196343862901</v>
       </c>
       <c r="AG11">
-        <v>0.9891337424109089</v>
+        <v>0.9784196343862901</v>
       </c>
       <c r="AH11">
-        <v>0.9949763240647774</v>
+        <v>0.989570922437966</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3066,16 +3066,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5514669988747417</v>
+        <v>0.5385140204315128</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5613810759934331</v>
+        <v>0.5039245900298179</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3148,16 +3148,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5267333589380712</v>
+        <v>0.5013717976524071</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -3189,16 +3189,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5202550829578054</v>
+        <v>0.5031284787222197</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -3230,16 +3230,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5534335359044671</v>
+        <v>0.5208100672214501</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6436492929120887</v>
+        <v>0.5931931206222549</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -3312,16 +3312,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.5602823753215028</v>
+      </c>
+      <c r="G8">
         <v>13</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5389427872868723</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
       </c>
       <c r="H8">
         <v>61</v>
@@ -3353,16 +3353,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5579346383725592</v>
+        <v>0.5046017711060464</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>61</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6115206356033299</v>
+        <v>0.5821750491693792</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6162002465074413</v>
+        <v>0.5867411036368921</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -3530,16 +3530,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7080627200701265</v>
+        <v>0.7555184052237373</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -3571,16 +3571,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7017415120643259</v>
+        <v>0.7801564581853572</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8204197766592868</v>
+        <v>0.7657202265424143</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -3653,16 +3653,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7022555932043868</v>
+        <v>0.7274224365968848</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8033816138475847</v>
+        <v>0.7585925595885805</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -3735,16 +3735,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7260284026664008</v>
+        <v>0.7098136485701185</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>61</v>
@@ -3776,16 +3776,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7097235291948176</v>
+        <v>0.7174120189577369</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <v>61</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7110752983444218</v>
+        <v>0.7211677521845449</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7259462046746016</v>
+        <v>0.703540387966078</v>
       </c>
       <c r="G10">
         <v>17</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.766680149578629</v>
+        <v>0.7456635023825875</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -3994,16 +3994,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8131080832794686</v>
+        <v>0.8177527231916734</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -4035,16 +4035,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8267503334302868</v>
+        <v>0.8169189631907093</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -4076,16 +4076,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8204197766592868</v>
+        <v>0.8035760888064587</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -4117,16 +4117,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8399011415818645</v>
+        <v>0.8058366739530405</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -4158,16 +4158,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8033816138475847</v>
+        <v>0.8328152888866323</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -4199,16 +4199,16 @@
         <v>2</v>
       </c>
       <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.8122572188863711</v>
+      </c>
+      <c r="G7">
         <v>22</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8097619834753751</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
       </c>
       <c r="H7">
         <v>61</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8846843657682515</v>
+        <v>0.8519529778517404</v>
       </c>
       <c r="G8">
         <v>24</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8424794538459905</v>
+        <v>0.8517964188763786</v>
       </c>
       <c r="G9">
         <v>20</v>
@@ -4322,16 +4322,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8018166187428617</v>
+        <v>0.8150146789869771</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <v>61</v>
@@ -4363,16 +4363,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.8077808094603033</v>
+      </c>
+      <c r="G11">
         <v>23</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8011108792862214</v>
-      </c>
-      <c r="G11">
-        <v>22</v>
       </c>
       <c r="H11">
         <v>61</v>
@@ -4458,16 +4458,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9308724701160189</v>
+      </c>
+      <c r="G2">
         <v>24</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9092537253045664</v>
-      </c>
-      <c r="G2">
-        <v>23</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -4499,16 +4499,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9210872582964172</v>
+        <v>0.9581144562450661</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -4540,16 +4540,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.9037832935511264</v>
+      </c>
+      <c r="G4">
         <v>23</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9325732587551872</v>
-      </c>
-      <c r="G4">
-        <v>22</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -4581,16 +4581,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9096666036473563</v>
+        <v>0.931674443792579</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -4622,16 +4622,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9016299915734286</v>
+      </c>
+      <c r="G6">
         <v>23</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9005779785792001</v>
-      </c>
-      <c r="G6">
-        <v>22</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9383313921119878</v>
+        <v>0.905956129170601</v>
       </c>
       <c r="G7">
         <v>24</v>
@@ -4704,16 +4704,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9004870053096932</v>
+        <v>0.9158905631293843</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H8">
         <v>61</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.93358773975653</v>
+        <v>0.9401000885461078</v>
       </c>
       <c r="G9">
         <v>24</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9231072212473133</v>
+        <v>0.9039154891997903</v>
       </c>
       <c r="G10">
         <v>24</v>
@@ -4827,16 +4827,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9144919802541023</v>
+        <v>0.9194991556704498</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>61</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/61_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/61_11R22.xlsx
@@ -1019,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0104078689436532</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1230912497285317</v>
+        <v>0.1237722762792683</v>
       </c>
       <c r="F5">
-        <v>0.218254429218778</v>
+        <v>0.2194619647783052</v>
       </c>
       <c r="G5">
-        <v>0.09399480138774816</v>
+        <v>0.09451484611487088</v>
       </c>
       <c r="H5">
-        <v>0.01313053785086207</v>
+        <v>0.01320318513425232</v>
       </c>
       <c r="I5">
-        <v>0.008046960151104947</v>
+        <v>0.00809148154094954</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1046,76 +1046,76 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.03620263144154157</v>
+        <v>0.03640292962092147</v>
       </c>
       <c r="N5">
-        <v>0.006734841919935387</v>
+        <v>0.006772103757577015</v>
       </c>
       <c r="O5">
-        <v>0.09771492409269965</v>
+        <v>0.09825555113042249</v>
       </c>
       <c r="P5">
-        <v>0.01018672861417048</v>
+        <v>0.01024308869392187</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.01443376079161491</v>
+        <v>0.01451361841226421</v>
       </c>
       <c r="S5">
-        <v>0.02832866416046628</v>
+        <v>0.02848539806708211</v>
       </c>
       <c r="T5">
-        <v>0.06689503829577838</v>
+        <v>0.06726514825316722</v>
       </c>
       <c r="U5">
-        <v>0.01961541591639597</v>
+        <v>0.01972394206323638</v>
       </c>
       <c r="V5">
-        <v>0.001814549596115214</v>
+        <v>0.001824588948671209</v>
       </c>
       <c r="W5">
-        <v>0.05001861185539418</v>
+        <v>0.0502953496639682</v>
       </c>
       <c r="X5">
-        <v>0.00696565998825035</v>
+        <v>0.007004198872256028</v>
       </c>
       <c r="Y5">
-        <v>0.02533864487658079</v>
+        <v>0.02547883591338231</v>
       </c>
       <c r="Z5">
-        <v>0.04845272786484868</v>
+        <v>0.04872080211224116</v>
       </c>
       <c r="AA5">
-        <v>0.05204639709810913</v>
+        <v>0.05233435402739666</v>
       </c>
       <c r="AB5">
-        <v>0.002401202395700574</v>
+        <v>0.002414487520262807</v>
       </c>
       <c r="AC5">
-        <v>0.01846695991856082</v>
+        <v>0.01856913200669596</v>
       </c>
       <c r="AD5">
-        <v>0.01602827113058927</v>
+        <v>0.0161169506933235</v>
       </c>
       <c r="AE5">
-        <v>0.0006137773885255391</v>
+        <v>0.0006171732326553983</v>
       </c>
       <c r="AF5">
-        <v>0.02251188236271662</v>
+        <v>0.022636433779896</v>
       </c>
       <c r="AG5">
-        <v>0.0009585839774178912</v>
+        <v>0.0009638875318230338</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.00734487903391005</v>
+        <v>0.007385516021876887</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.004932755829311757</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2242,103 +2242,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0104078689436532</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1334991186721849</v>
+        <v>0.1237722762792683</v>
       </c>
       <c r="F5">
-        <v>0.351753547890963</v>
+        <v>0.3432342410575736</v>
       </c>
       <c r="G5">
-        <v>0.4457483492787111</v>
+        <v>0.4377490871724444</v>
       </c>
       <c r="H5">
-        <v>0.4588788871295731</v>
+        <v>0.4509522723066968</v>
       </c>
       <c r="I5">
-        <v>0.4669258472806781</v>
+        <v>0.4590437538476463</v>
       </c>
       <c r="J5">
-        <v>0.4669258472806781</v>
+        <v>0.4590437538476463</v>
       </c>
       <c r="K5">
-        <v>0.4669258472806781</v>
+        <v>0.4590437538476463</v>
       </c>
       <c r="L5">
-        <v>0.4669258472806781</v>
+        <v>0.4590437538476463</v>
       </c>
       <c r="M5">
-        <v>0.5031284787222197</v>
+        <v>0.4954466834685677</v>
       </c>
       <c r="N5">
-        <v>0.509863320642155</v>
+        <v>0.5022187872261448</v>
       </c>
       <c r="O5">
-        <v>0.6075782447348547</v>
+        <v>0.6004743383565673</v>
       </c>
       <c r="P5">
-        <v>0.6177649733490251</v>
+        <v>0.6107174270504891</v>
       </c>
       <c r="Q5">
-        <v>0.6177649733490251</v>
+        <v>0.6107174270504891</v>
       </c>
       <c r="R5">
-        <v>0.6321987341406401</v>
+        <v>0.6252310454627533</v>
       </c>
       <c r="S5">
-        <v>0.6605273983011064</v>
+        <v>0.6537164435298355</v>
       </c>
       <c r="T5">
-        <v>0.7274224365968848</v>
+        <v>0.7209815917830027</v>
       </c>
       <c r="U5">
-        <v>0.7470378525132807</v>
+        <v>0.7407055338462391</v>
       </c>
       <c r="V5">
-        <v>0.748852402109396</v>
+        <v>0.7425301227949103</v>
       </c>
       <c r="W5">
-        <v>0.7988710139647901</v>
+        <v>0.7928254724588785</v>
       </c>
       <c r="X5">
-        <v>0.8058366739530405</v>
+        <v>0.7998296713311345</v>
       </c>
       <c r="Y5">
-        <v>0.8311753188296213</v>
+        <v>0.8253085072445168</v>
       </c>
       <c r="Z5">
-        <v>0.8796280466944699</v>
+        <v>0.8740293093567579</v>
       </c>
       <c r="AA5">
-        <v>0.931674443792579</v>
+        <v>0.9263636633841545</v>
       </c>
       <c r="AB5">
-        <v>0.9340756461882795</v>
+        <v>0.9287781509044174</v>
       </c>
       <c r="AC5">
-        <v>0.9525426061068404</v>
+        <v>0.9473472829111134</v>
       </c>
       <c r="AD5">
-        <v>0.9685708772374296</v>
+        <v>0.9634642336044369</v>
       </c>
       <c r="AE5">
-        <v>0.9691846546259552</v>
+        <v>0.9640814068370923</v>
       </c>
       <c r="AF5">
-        <v>0.9916965369886718</v>
+        <v>0.9867178406169883</v>
       </c>
       <c r="AG5">
-        <v>0.9926551209660897</v>
+        <v>0.9876817281488114</v>
       </c>
       <c r="AH5">
-        <v>0.9926551209660897</v>
+        <v>0.9876817281488114</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999997</v>
+        <v>0.9950672441706883</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -3189,16 +3189,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5031284787222197</v>
+        <v>0.5022187872261448</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7274224365968848</v>
+        <v>0.7209815917830027</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -4117,16 +4117,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8058366739530405</v>
+        <v>0.8253085072445168</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.931674443792579</v>
+        <v>0.9263636633841545</v>
       </c>
       <c r="G5">
         <v>24</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/61_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/61_11R22.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>100%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -689,19 +689,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1881699479791127</v>
+        <v>0.2884640488661734</v>
       </c>
       <c r="E2">
-        <v>0.1586375946322477</v>
+        <v>0.2346618086604776</v>
       </c>
       <c r="F2">
-        <v>0.127484677811194</v>
+        <v>0.1779072150042185</v>
       </c>
       <c r="G2">
-        <v>0.008764044912825663</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.00535874826692588</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -713,76 +713,76 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.05009900682920679</v>
+        <v>0.03692547847444817</v>
       </c>
       <c r="M2">
-        <v>0.0003790507753156253</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.09504259538994778</v>
+        <v>0.1188040107759598</v>
       </c>
       <c r="O2">
-        <v>0.01712523336632547</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.01047945830854886</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.02624971415134758</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06772833280073921</v>
+        <v>0.06904270324974983</v>
       </c>
       <c r="T2">
-        <v>0.01210922418253218</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.004333801725933506</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0457912920594704</v>
+        <v>0.02907765469769576</v>
       </c>
       <c r="W2">
-        <v>0.002055242684966644</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.02823443806502191</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.02823464287966729</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.05459542329468983</v>
+        <v>0.04511708027127699</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02210135036089772</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01081576914144372</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0224809172691197</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.002340899485691448</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.004975469158071144</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.006413124468757477</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -799,22 +799,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1273691491508393</v>
+        <v>0.1544041058760192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3765554408789787</v>
+        <v>0.5461802015523262</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.03207456546377833</v>
+        <v>0.004579893327653409</v>
       </c>
       <c r="I3">
-        <v>0.0005251802273219984</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -823,67 +823,67 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.007639474352552462</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.07294461374824521</v>
+        <v>0.06883667019906924</v>
       </c>
       <c r="O3">
-        <v>0.03051393831529868</v>
+        <v>0.002126241456205936</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.01620513602330612</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1163289600250365</v>
+        <v>0.137046480939115</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.03676250500535215</v>
+        <v>0.0119503736122114</v>
       </c>
       <c r="V3">
-        <v>0.02717962100020567</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.004867413286850909</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.04050185509144451</v>
+        <v>0.01782946096864761</v>
       </c>
       <c r="Y3">
-        <v>0.0032009947536528</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0654456089222028</v>
+        <v>0.05704657206875177</v>
       </c>
       <c r="AA3">
-        <v>0.001250568967457891</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.00855746401334358</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002481165305968162</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.01496900296390793</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.005174798966907571</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.00945254353734873</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1467340273087929</v>
+        <v>0.1909974978852321</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3127691964814425</v>
+        <v>0.4622062553270624</v>
       </c>
       <c r="G4">
-        <v>0.002638210039942724</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.03923036382222903</v>
+        <v>0.01539653852271165</v>
       </c>
       <c r="I4">
-        <v>0.001478997704103094</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -933,76 +933,76 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01445485060556908</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.07520393880028726</v>
+        <v>0.07415727348720992</v>
       </c>
       <c r="O4">
-        <v>0.01086014254721458</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.02846688167064732</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1338836175621858</v>
+        <v>0.1700071036370611</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.03785586226404437</v>
+        <v>0.0131513704564841</v>
       </c>
       <c r="V4">
-        <v>0.03989955047749195</v>
+        <v>0.01648961586394525</v>
       </c>
       <c r="W4">
-        <v>0.001311695846835535</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.04427002456039329</v>
+        <v>0.02362853017566474</v>
       </c>
       <c r="Y4">
-        <v>0.01472593385994689</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0505985546262351</v>
+        <v>0.03396581464462865</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.006280524913191818</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.002560501718565988</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0008622358289979258</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01909022124335516</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002667187164103562</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.004573050124674218</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.009584430829749588</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1237722762792683</v>
+        <v>0.1800982339947837</v>
       </c>
       <c r="F5">
-        <v>0.2194619647783052</v>
+        <v>0.3640783843812691</v>
       </c>
       <c r="G5">
-        <v>0.09451484611487088</v>
+        <v>0.1238457110113683</v>
       </c>
       <c r="H5">
-        <v>0.01320318513425232</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.00809148154094954</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1046,76 +1046,76 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.03640292962092147</v>
+        <v>0.01211539499188095</v>
       </c>
       <c r="N5">
-        <v>0.006772103757577015</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.09825555113042249</v>
+        <v>0.1310378701886822</v>
       </c>
       <c r="P5">
-        <v>0.01024308869392187</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.01451361841226421</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.02848539806708211</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.06726514825316722</v>
+        <v>0.07145340428301071</v>
       </c>
       <c r="U5">
-        <v>0.01972394206323638</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001824588948671209</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0502953496639682</v>
+        <v>0.03882600058422424</v>
       </c>
       <c r="X5">
-        <v>0.007004198872256028</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.02547883591338231</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.04872080211224116</v>
+        <v>0.03579865772313499</v>
       </c>
       <c r="AA5">
-        <v>0.05233435402739666</v>
+        <v>0.04274634284164566</v>
       </c>
       <c r="AB5">
-        <v>0.002414487520262807</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01856913200669596</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0161169506933235</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0006171732326553983</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.022636433779896</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0009638875318230338</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.007385516021876887</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.004932755829311757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1129,88 +1129,88 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2044947965975816</v>
+        <v>0.3059806124356602</v>
       </c>
       <c r="E6">
-        <v>0.07625522092217926</v>
+        <v>0.08180551116353922</v>
       </c>
       <c r="F6">
-        <v>0.2032807715443038</v>
+        <v>0.3038583799825965</v>
       </c>
       <c r="G6">
-        <v>0.01062616066698517</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02615311749040019</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.002379964636866993</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01983491794300458</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.08087256146190289</v>
+        <v>0.08987706612345597</v>
       </c>
       <c r="O6">
-        <v>0.009399261798086493</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.01878725771601692</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.007130144170928466</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.09937838464032402</v>
+        <v>0.122227023328923</v>
       </c>
       <c r="T6">
-        <v>0.005645930591167344</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.01460339215191861</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.05397340655496576</v>
+        <v>0.04285475851179927</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.03677970719626586</v>
+        <v>0.01279851982979415</v>
       </c>
       <c r="Y6">
-        <v>0.03203499549053048</v>
+        <v>0.004504307832145874</v>
       </c>
       <c r="Z6">
-        <v>0.05010580582935513</v>
+        <v>0.03609382079208569</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01386987607416985</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.007670445721529513</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01942113451414532</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.002922585434692088</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.004380160852679399</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2006927358300276</v>
+        <v>0.315261112272602</v>
       </c>
       <c r="F7">
-        <v>0.08653558668578956</v>
+        <v>0.1056834467834744</v>
       </c>
       <c r="G7">
-        <v>0.1008366663583837</v>
+        <v>0.1319383674277289</v>
       </c>
       <c r="H7">
-        <v>0.007485115477909989</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1263,79 +1263,79 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.02034047683937491</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.04752680774164731</v>
+        <v>0.03406840658686652</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.129775731689122</v>
+        <v>0.1850667242491694</v>
       </c>
       <c r="P7">
-        <v>0.007095404716407202</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.01424447332043996</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.02381608966248814</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.05281736516700821</v>
+        <v>0.04378118132463047</v>
       </c>
       <c r="U7">
-        <v>0.01864719508151998</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.06626596893734991</v>
+        <v>0.06847106718289829</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.03617760137890272</v>
+        <v>0.01323274108112524</v>
       </c>
       <c r="Z7">
-        <v>0.01294913197669995</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.0807497783075298</v>
+        <v>0.09506145576518944</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.02328205603462702</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.01095695012694475</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.03301983731850647</v>
+        <v>0.007435497326315542</v>
       </c>
       <c r="AG7">
-        <v>0.006830994278684209</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.006712528925570342</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.0132415041450665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1349,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1006628352545569</v>
+        <v>0.1404495167863209</v>
       </c>
       <c r="E8">
-        <v>0.0005736730791891321</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2723786163280451</v>
+        <v>0.4805335930326511</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1367,73 +1367,73 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.007772372898725441</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.01082000738989911</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.0307414138348272</v>
+        <v>0.001969745942297436</v>
       </c>
       <c r="N8">
-        <v>0.06763352615600982</v>
+        <v>0.07503478318634567</v>
       </c>
       <c r="O8">
-        <v>0.06969993038025017</v>
+        <v>0.07912730844732645</v>
       </c>
       <c r="P8">
-        <v>0.001245210456019367</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.03754851869024241</v>
+        <v>0.01545125563344843</v>
       </c>
       <c r="R8">
-        <v>0.003617643923929022</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.05844506188219982</v>
+        <v>0.0568369776896933</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.01005187406632498</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.01969996922324415</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.02652136539427434</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.04413954375097872</v>
+        <v>0.02850481806832817</v>
       </c>
       <c r="Y8">
-        <v>0.003533237976971873</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.08686817716605291</v>
+        <v>0.1131291183707837</v>
       </c>
       <c r="AA8">
-        <v>0.02190580997404005</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.02609157916970134</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.01594019613390248</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.02067944233915192</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.03427239940250977</v>
+        <v>0.008962882842804781</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.02915759512895369</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1459,16 +1459,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2012902066820982</v>
+        <v>0.278009515312601</v>
       </c>
       <c r="E9">
-        <v>0.1851754314401198</v>
+        <v>0.2525770605603329</v>
       </c>
       <c r="F9">
-        <v>0.09725539152332525</v>
+        <v>0.1138210181442569</v>
       </c>
       <c r="G9">
-        <v>0.01113370841159969</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1480,16 +1480,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.009747033048903505</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.06417904120187616</v>
+        <v>0.06161968301616302</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1276504286098783</v>
+        <v>0.1617906853465386</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1498,49 +1498,49 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.0005485800831506732</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.0241879311835934</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.03985557581001054</v>
+        <v>0.02323221414315397</v>
       </c>
       <c r="T9">
-        <v>0.02274928397841098</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.06802380690341217</v>
+        <v>0.06768752003337866</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.01853981155156961</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.02638129032998509</v>
+        <v>0.001966999416658053</v>
       </c>
       <c r="Z9">
-        <v>0.04338256778817464</v>
+        <v>0.02879853837351654</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.008141839909632369</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.01054437090446791</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.03178600910804412</v>
+        <v>0.01049676565340048</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.009427691531748035</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1834141145441146</v>
+        <v>0.279868192942239</v>
       </c>
       <c r="E10">
-        <v>0.06724502920048211</v>
+        <v>0.07071534959963961</v>
       </c>
       <c r="F10">
-        <v>0.1267353192123154</v>
+        <v>0.1778227032509591</v>
       </c>
       <c r="G10">
-        <v>0.01015241541085924</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1590,79 +1590,79 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.01514219726512987</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.04239424097301348</v>
+        <v>0.02597355791121298</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1370917325634645</v>
+        <v>0.1964685701166298</v>
       </c>
       <c r="O10">
-        <v>0.01125979209913069</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.02108948645239572</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.02365762280194671</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.06535843744322564</v>
+        <v>0.06731869696103354</v>
       </c>
       <c r="T10">
-        <v>0.01905098960887751</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.05840709718312088</v>
+        <v>0.05480338295867118</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.03401620422890073</v>
+        <v>0.01088959472533942</v>
       </c>
       <c r="Y10">
-        <v>0.00503568513440983</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.08386512507840325</v>
+        <v>0.100638459514909</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02668864482285563</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.004907118833989844</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.03657777538319901</v>
+        <v>0.01550149201936625</v>
       </c>
       <c r="AF10">
-        <v>0.00752048885837487</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.003844791132613498</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.01654569176917682</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1679,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1703132155112756</v>
+        <v>0.2581194692257367</v>
       </c>
       <c r="E11">
-        <v>0.1632566097990202</v>
+        <v>0.2452465915989945</v>
       </c>
       <c r="F11">
-        <v>0.0552257889806465</v>
+        <v>0.04817343872377898</v>
       </c>
       <c r="G11">
-        <v>0.002531270652409672</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1700,79 +1700,79 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.004778098981201632</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.04918599796496807</v>
+        <v>0.03715546580502922</v>
       </c>
       <c r="M11">
-        <v>0.01199981151322586</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.1294503102341446</v>
+        <v>0.1835760980136958</v>
       </c>
       <c r="O11">
-        <v>0.001858904032029442</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.0003576850563788324</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.03384159847414945</v>
+        <v>0.009163739335445955</v>
       </c>
       <c r="S11">
-        <v>0.02918201717703106</v>
+        <v>0.000663587523720297</v>
       </c>
       <c r="T11">
-        <v>0.02122171028272441</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.07246048372338205</v>
+        <v>0.07961350005130642</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.0363637880180623</v>
+        <v>0.01376479523599751</v>
       </c>
       <c r="Y11">
-        <v>0.02575351905965356</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.08623688222284712</v>
+        <v>0.1047448307862592</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.02548146398729945</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.01868212581875851</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.03966034917536693</v>
+        <v>0.01977848370003536</v>
       </c>
       <c r="AF11">
-        <v>0.0005780037217148673</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.01115128805167587</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.01042907756203382</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1912,97 +1912,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1881699479791127</v>
+        <v>0.2884640488661734</v>
       </c>
       <c r="E2">
-        <v>0.3468075426113604</v>
+        <v>0.5231258575266511</v>
       </c>
       <c r="F2">
-        <v>0.4742922204225544</v>
+        <v>0.7010330725308697</v>
       </c>
       <c r="G2">
-        <v>0.48305626533538</v>
+        <v>0.7010330725308697</v>
       </c>
       <c r="H2">
-        <v>0.4884150136023059</v>
+        <v>0.7010330725308697</v>
       </c>
       <c r="I2">
-        <v>0.4884150136023059</v>
+        <v>0.7010330725308697</v>
       </c>
       <c r="J2">
-        <v>0.4884150136023059</v>
+        <v>0.7010330725308697</v>
       </c>
       <c r="K2">
-        <v>0.4884150136023059</v>
+        <v>0.7010330725308697</v>
       </c>
       <c r="L2">
-        <v>0.5385140204315128</v>
+        <v>0.7379585510053178</v>
       </c>
       <c r="M2">
-        <v>0.5388930712068284</v>
+        <v>0.7379585510053178</v>
       </c>
       <c r="N2">
-        <v>0.6339356665967761</v>
+        <v>0.8567625617812776</v>
       </c>
       <c r="O2">
-        <v>0.6510608999631016</v>
+        <v>0.8567625617812776</v>
       </c>
       <c r="P2">
-        <v>0.6510608999631016</v>
+        <v>0.8567625617812776</v>
       </c>
       <c r="Q2">
-        <v>0.6615403582716505</v>
+        <v>0.8567625617812776</v>
       </c>
       <c r="R2">
-        <v>0.6877900724229981</v>
+        <v>0.8567625617812776</v>
       </c>
       <c r="S2">
-        <v>0.7555184052237373</v>
+        <v>0.9258052650310274</v>
       </c>
       <c r="T2">
-        <v>0.7676276294062694</v>
+        <v>0.9258052650310274</v>
       </c>
       <c r="U2">
-        <v>0.7719614311322029</v>
+        <v>0.9258052650310274</v>
       </c>
       <c r="V2">
-        <v>0.8177527231916734</v>
+        <v>0.9548829197287232</v>
       </c>
       <c r="W2">
-        <v>0.81980796587664</v>
+        <v>0.9548829197287232</v>
       </c>
       <c r="X2">
-        <v>0.8480424039416619</v>
+        <v>0.9548829197287232</v>
       </c>
       <c r="Y2">
-        <v>0.8762770468213291</v>
+        <v>0.9548829197287232</v>
       </c>
       <c r="Z2">
-        <v>0.9308724701160189</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9308724701160189</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9529738204769167</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9637895896183604</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9637895896183604</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9862705068874801</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9886114063731716</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9886114063731716</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9935868755312427</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -2022,103 +2022,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1273691491508393</v>
+        <v>0.1544041058760192</v>
       </c>
       <c r="E3">
-        <v>0.1273691491508393</v>
+        <v>0.1544041058760192</v>
       </c>
       <c r="F3">
-        <v>0.5039245900298179</v>
+        <v>0.7005843074283453</v>
       </c>
       <c r="G3">
-        <v>0.5039245900298179</v>
+        <v>0.7005843074283453</v>
       </c>
       <c r="H3">
-        <v>0.5359991554935962</v>
+        <v>0.7051642007559987</v>
       </c>
       <c r="I3">
-        <v>0.5365243357209182</v>
+        <v>0.7051642007559987</v>
       </c>
       <c r="J3">
-        <v>0.5365243357209182</v>
+        <v>0.7051642007559987</v>
       </c>
       <c r="K3">
-        <v>0.5365243357209182</v>
+        <v>0.7051642007559987</v>
       </c>
       <c r="L3">
-        <v>0.5441638100734706</v>
+        <v>0.7051642007559987</v>
       </c>
       <c r="M3">
-        <v>0.5441638100734706</v>
+        <v>0.7051642007559987</v>
       </c>
       <c r="N3">
-        <v>0.6171084238217158</v>
+        <v>0.774000870955068</v>
       </c>
       <c r="O3">
-        <v>0.6476223621370145</v>
+        <v>0.776127112411274</v>
       </c>
       <c r="P3">
-        <v>0.6476223621370145</v>
+        <v>0.776127112411274</v>
       </c>
       <c r="Q3">
-        <v>0.6638274981603206</v>
+        <v>0.776127112411274</v>
       </c>
       <c r="R3">
-        <v>0.6638274981603206</v>
+        <v>0.776127112411274</v>
       </c>
       <c r="S3">
-        <v>0.7801564581853572</v>
+        <v>0.9131735933503891</v>
       </c>
       <c r="T3">
-        <v>0.7801564581853572</v>
+        <v>0.9131735933503891</v>
       </c>
       <c r="U3">
-        <v>0.8169189631907093</v>
+        <v>0.9251239669626005</v>
       </c>
       <c r="V3">
-        <v>0.844098584190915</v>
+        <v>0.9251239669626005</v>
       </c>
       <c r="W3">
-        <v>0.8489659974777659</v>
+        <v>0.9251239669626005</v>
       </c>
       <c r="X3">
-        <v>0.8894678525692105</v>
+        <v>0.942953427931248</v>
       </c>
       <c r="Y3">
-        <v>0.8926688473228632</v>
+        <v>0.942953427931248</v>
       </c>
       <c r="Z3">
-        <v>0.9581144562450661</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA3">
-        <v>0.959365025212524</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB3">
-        <v>0.9679224892258675</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC3">
-        <v>0.9679224892258675</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD3">
-        <v>0.9704036545318357</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE3">
-        <v>0.9853726574957437</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF3">
-        <v>0.9905474564626512</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG3">
-        <v>0.9905474564626512</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH3">
-        <v>0.9905474564626512</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1467340273087929</v>
+        <v>0.1909974978852321</v>
       </c>
       <c r="E4">
-        <v>0.1467340273087929</v>
+        <v>0.1909974978852321</v>
       </c>
       <c r="F4">
-        <v>0.4595032237902353</v>
+        <v>0.6532037532122945</v>
       </c>
       <c r="G4">
-        <v>0.4621414338301781</v>
+        <v>0.6532037532122945</v>
       </c>
       <c r="H4">
-        <v>0.5013717976524071</v>
+        <v>0.6686002917350061</v>
       </c>
       <c r="I4">
-        <v>0.5028507953565102</v>
+        <v>0.6686002917350061</v>
       </c>
       <c r="J4">
-        <v>0.5028507953565102</v>
+        <v>0.6686002917350061</v>
       </c>
       <c r="K4">
-        <v>0.5028507953565102</v>
+        <v>0.6686002917350061</v>
       </c>
       <c r="L4">
-        <v>0.5173056459620793</v>
+        <v>0.6686002917350061</v>
       </c>
       <c r="M4">
-        <v>0.5173056459620793</v>
+        <v>0.6686002917350061</v>
       </c>
       <c r="N4">
-        <v>0.5925095847623666</v>
+        <v>0.742757565222216</v>
       </c>
       <c r="O4">
-        <v>0.6033697273095812</v>
+        <v>0.742757565222216</v>
       </c>
       <c r="P4">
-        <v>0.6033697273095812</v>
+        <v>0.742757565222216</v>
       </c>
       <c r="Q4">
-        <v>0.6318366089802285</v>
+        <v>0.742757565222216</v>
       </c>
       <c r="R4">
-        <v>0.6318366089802285</v>
+        <v>0.742757565222216</v>
       </c>
       <c r="S4">
-        <v>0.7657202265424143</v>
+        <v>0.9127646688592772</v>
       </c>
       <c r="T4">
-        <v>0.7657202265424143</v>
+        <v>0.9127646688592772</v>
       </c>
       <c r="U4">
-        <v>0.8035760888064587</v>
+        <v>0.9259160393157613</v>
       </c>
       <c r="V4">
-        <v>0.8434756392839506</v>
+        <v>0.9424056551797065</v>
       </c>
       <c r="W4">
-        <v>0.8447873351307862</v>
+        <v>0.9424056551797065</v>
       </c>
       <c r="X4">
-        <v>0.8890573596911795</v>
+        <v>0.9660341853553712</v>
       </c>
       <c r="Y4">
-        <v>0.9037832935511264</v>
+        <v>0.9660341853553712</v>
       </c>
       <c r="Z4">
-        <v>0.9543818481773615</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.9543818481773615</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.9606623730905534</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC4">
-        <v>0.9632228748091194</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD4">
-        <v>0.9640851106381173</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE4">
-        <v>0.9831753318814724</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.985842519045576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.985842519045576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.9904155691702502</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2245,100 +2245,100 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1237722762792683</v>
+        <v>0.1800982339947837</v>
       </c>
       <c r="F5">
-        <v>0.3432342410575736</v>
+        <v>0.5441766183760528</v>
       </c>
       <c r="G5">
-        <v>0.4377490871724444</v>
+        <v>0.668022329387421</v>
       </c>
       <c r="H5">
-        <v>0.4509522723066968</v>
+        <v>0.668022329387421</v>
       </c>
       <c r="I5">
-        <v>0.4590437538476463</v>
+        <v>0.668022329387421</v>
       </c>
       <c r="J5">
-        <v>0.4590437538476463</v>
+        <v>0.668022329387421</v>
       </c>
       <c r="K5">
-        <v>0.4590437538476463</v>
+        <v>0.668022329387421</v>
       </c>
       <c r="L5">
-        <v>0.4590437538476463</v>
+        <v>0.668022329387421</v>
       </c>
       <c r="M5">
-        <v>0.4954466834685677</v>
+        <v>0.680137724379302</v>
       </c>
       <c r="N5">
-        <v>0.5022187872261448</v>
+        <v>0.680137724379302</v>
       </c>
       <c r="O5">
-        <v>0.6004743383565673</v>
+        <v>0.8111755945679842</v>
       </c>
       <c r="P5">
-        <v>0.6107174270504891</v>
+        <v>0.8111755945679842</v>
       </c>
       <c r="Q5">
-        <v>0.6107174270504891</v>
+        <v>0.8111755945679842</v>
       </c>
       <c r="R5">
-        <v>0.6252310454627533</v>
+        <v>0.8111755945679842</v>
       </c>
       <c r="S5">
-        <v>0.6537164435298355</v>
+        <v>0.8111755945679842</v>
       </c>
       <c r="T5">
-        <v>0.7209815917830027</v>
+        <v>0.8826289988509949</v>
       </c>
       <c r="U5">
-        <v>0.7407055338462391</v>
+        <v>0.8826289988509949</v>
       </c>
       <c r="V5">
-        <v>0.7425301227949103</v>
+        <v>0.8826289988509949</v>
       </c>
       <c r="W5">
-        <v>0.7928254724588785</v>
+        <v>0.9214549994352191</v>
       </c>
       <c r="X5">
-        <v>0.7998296713311345</v>
+        <v>0.9214549994352191</v>
       </c>
       <c r="Y5">
-        <v>0.8253085072445168</v>
+        <v>0.9214549994352191</v>
       </c>
       <c r="Z5">
-        <v>0.8740293093567579</v>
+        <v>0.9572536571583541</v>
       </c>
       <c r="AA5">
-        <v>0.9263636633841545</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB5">
-        <v>0.9287781509044174</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC5">
-        <v>0.9473472829111134</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD5">
-        <v>0.9634642336044369</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE5">
-        <v>0.9640814068370923</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF5">
-        <v>0.9867178406169883</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG5">
-        <v>0.9876817281488114</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.9876817281488114</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI5">
-        <v>0.9950672441706883</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2352,103 +2352,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2044947965975816</v>
+        <v>0.3059806124356602</v>
       </c>
       <c r="E6">
-        <v>0.2807500175197609</v>
+        <v>0.3877861235991994</v>
       </c>
       <c r="F6">
-        <v>0.4840307890640647</v>
+        <v>0.691644503581796</v>
       </c>
       <c r="G6">
-        <v>0.4946569497310499</v>
+        <v>0.691644503581796</v>
       </c>
       <c r="H6">
-        <v>0.5208100672214501</v>
+        <v>0.691644503581796</v>
       </c>
       <c r="I6">
-        <v>0.5208100672214501</v>
+        <v>0.691644503581796</v>
       </c>
       <c r="J6">
-        <v>0.523190031858317</v>
+        <v>0.691644503581796</v>
       </c>
       <c r="K6">
-        <v>0.523190031858317</v>
+        <v>0.691644503581796</v>
       </c>
       <c r="L6">
-        <v>0.5430249498013217</v>
+        <v>0.691644503581796</v>
       </c>
       <c r="M6">
-        <v>0.5430249498013217</v>
+        <v>0.691644503581796</v>
       </c>
       <c r="N6">
-        <v>0.6238975112632246</v>
+        <v>0.781521569705252</v>
       </c>
       <c r="O6">
-        <v>0.633296773061311</v>
+        <v>0.781521569705252</v>
       </c>
       <c r="P6">
-        <v>0.633296773061311</v>
+        <v>0.781521569705252</v>
       </c>
       <c r="Q6">
-        <v>0.652084030777328</v>
+        <v>0.781521569705252</v>
       </c>
       <c r="R6">
-        <v>0.6592141749482565</v>
+        <v>0.781521569705252</v>
       </c>
       <c r="S6">
-        <v>0.7585925595885805</v>
+        <v>0.903748593034175</v>
       </c>
       <c r="T6">
-        <v>0.7642384901797479</v>
+        <v>0.903748593034175</v>
       </c>
       <c r="U6">
-        <v>0.7788418823316665</v>
+        <v>0.903748593034175</v>
       </c>
       <c r="V6">
-        <v>0.8328152888866323</v>
+        <v>0.9466033515459743</v>
       </c>
       <c r="W6">
-        <v>0.8328152888866323</v>
+        <v>0.9466033515459743</v>
       </c>
       <c r="X6">
-        <v>0.8695949960828981</v>
+        <v>0.9594018713757685</v>
       </c>
       <c r="Y6">
-        <v>0.9016299915734286</v>
+        <v>0.9639061792079143</v>
       </c>
       <c r="Z6">
-        <v>0.9517357974027837</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.9517357974027837</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9656056734769536</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9732761191984831</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9732761191984831</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9926972537126284</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9926972537126284</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9926972537126284</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9956198391473204</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2465,97 +2465,97 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2006927358300276</v>
+        <v>0.315261112272602</v>
       </c>
       <c r="F7">
-        <v>0.2872283225158171</v>
+        <v>0.4209445590560764</v>
       </c>
       <c r="G7">
-        <v>0.3880649888742008</v>
+        <v>0.5528829264838052</v>
       </c>
       <c r="H7">
-        <v>0.3955501043521108</v>
+        <v>0.5528829264838052</v>
       </c>
       <c r="I7">
-        <v>0.3955501043521108</v>
+        <v>0.5528829264838052</v>
       </c>
       <c r="J7">
-        <v>0.3955501043521108</v>
+        <v>0.5528829264838052</v>
       </c>
       <c r="K7">
-        <v>0.3955501043521108</v>
+        <v>0.5528829264838052</v>
       </c>
       <c r="L7">
-        <v>0.4158905811914857</v>
+        <v>0.5528829264838052</v>
       </c>
       <c r="M7">
-        <v>0.463417388933133</v>
+        <v>0.5869513330706717</v>
       </c>
       <c r="N7">
-        <v>0.463417388933133</v>
+        <v>0.5869513330706717</v>
       </c>
       <c r="O7">
-        <v>0.5931931206222549</v>
+        <v>0.7720180573198412</v>
       </c>
       <c r="P7">
-        <v>0.6002885253386622</v>
+        <v>0.7720180573198412</v>
       </c>
       <c r="Q7">
-        <v>0.6002885253386622</v>
+        <v>0.7720180573198412</v>
       </c>
       <c r="R7">
-        <v>0.6145329986591022</v>
+        <v>0.7720180573198412</v>
       </c>
       <c r="S7">
-        <v>0.6383490883215903</v>
+        <v>0.7720180573198412</v>
       </c>
       <c r="T7">
-        <v>0.6911664534885985</v>
+        <v>0.8157992386444717</v>
       </c>
       <c r="U7">
-        <v>0.7098136485701185</v>
+        <v>0.8157992386444717</v>
       </c>
       <c r="V7">
-        <v>0.7098136485701185</v>
+        <v>0.8157992386444717</v>
       </c>
       <c r="W7">
-        <v>0.7760796175074685</v>
+        <v>0.88427030582737</v>
       </c>
       <c r="X7">
-        <v>0.7760796175074685</v>
+        <v>0.88427030582737</v>
       </c>
       <c r="Y7">
-        <v>0.8122572188863711</v>
+        <v>0.8975030469084953</v>
       </c>
       <c r="Z7">
-        <v>0.8252063508630711</v>
+        <v>0.8975030469084953</v>
       </c>
       <c r="AA7">
-        <v>0.905956129170601</v>
+        <v>0.9925645026736847</v>
       </c>
       <c r="AB7">
-        <v>0.905956129170601</v>
+        <v>0.9925645026736847</v>
       </c>
       <c r="AC7">
-        <v>0.9292381852052279</v>
+        <v>0.9925645026736847</v>
       </c>
       <c r="AD7">
-        <v>0.9401951353321727</v>
+        <v>0.9925645026736847</v>
       </c>
       <c r="AE7">
-        <v>0.9401951353321727</v>
+        <v>0.9925645026736847</v>
       </c>
       <c r="AF7">
-        <v>0.9732149726506791</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9800459669293633</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9800459669293633</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9867584958549337</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <v>1</v>
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1006628352545569</v>
+        <v>0.1404495167863209</v>
       </c>
       <c r="E8">
-        <v>0.101236508333746</v>
+        <v>0.1404495167863209</v>
       </c>
       <c r="F8">
-        <v>0.3736151246617911</v>
+        <v>0.620983109818972</v>
       </c>
       <c r="G8">
-        <v>0.3736151246617911</v>
+        <v>0.620983109818972</v>
       </c>
       <c r="H8">
-        <v>0.3736151246617911</v>
+        <v>0.620983109818972</v>
       </c>
       <c r="I8">
-        <v>0.3736151246617911</v>
+        <v>0.620983109818972</v>
       </c>
       <c r="J8">
-        <v>0.3813874975605166</v>
+        <v>0.620983109818972</v>
       </c>
       <c r="K8">
-        <v>0.3922075049504157</v>
+        <v>0.620983109818972</v>
       </c>
       <c r="L8">
-        <v>0.3922075049504157</v>
+        <v>0.620983109818972</v>
       </c>
       <c r="M8">
-        <v>0.4229489187852429</v>
+        <v>0.6229528557612695</v>
       </c>
       <c r="N8">
-        <v>0.4905824449412527</v>
+        <v>0.6979876389476152</v>
       </c>
       <c r="O8">
-        <v>0.5602823753215028</v>
+        <v>0.7771149473949416</v>
       </c>
       <c r="P8">
-        <v>0.5615275857775222</v>
+        <v>0.7771149473949416</v>
       </c>
       <c r="Q8">
-        <v>0.5990761044677646</v>
+        <v>0.79256620302839</v>
       </c>
       <c r="R8">
-        <v>0.6026937483916937</v>
+        <v>0.79256620302839</v>
       </c>
       <c r="S8">
-        <v>0.6611388102738934</v>
+        <v>0.8494031807180833</v>
       </c>
       <c r="T8">
-        <v>0.6611388102738934</v>
+        <v>0.8494031807180833</v>
       </c>
       <c r="U8">
-        <v>0.6711906843402184</v>
+        <v>0.8494031807180833</v>
       </c>
       <c r="V8">
-        <v>0.6908906535634626</v>
+        <v>0.8494031807180833</v>
       </c>
       <c r="W8">
-        <v>0.7174120189577369</v>
+        <v>0.8494031807180833</v>
       </c>
       <c r="X8">
-        <v>0.7615515627087156</v>
+        <v>0.8779079987864115</v>
       </c>
       <c r="Y8">
-        <v>0.7650848006856875</v>
+        <v>0.8779079987864115</v>
       </c>
       <c r="Z8">
-        <v>0.8519529778517404</v>
+        <v>0.9910371171571952</v>
       </c>
       <c r="AA8">
-        <v>0.8738587878257804</v>
+        <v>0.9910371171571952</v>
       </c>
       <c r="AB8">
-        <v>0.8999503669954818</v>
+        <v>0.9910371171571952</v>
       </c>
       <c r="AC8">
-        <v>0.8999503669954818</v>
+        <v>0.9910371171571952</v>
       </c>
       <c r="AD8">
-        <v>0.9158905631293843</v>
+        <v>0.9910371171571952</v>
       </c>
       <c r="AE8">
-        <v>0.9365700054685363</v>
+        <v>0.9910371171571952</v>
       </c>
       <c r="AF8">
-        <v>0.9708424048710461</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9708424048710461</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9708424048710461</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,94 +2682,94 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2012902066820982</v>
+        <v>0.278009515312601</v>
       </c>
       <c r="E9">
-        <v>0.386465638122218</v>
+        <v>0.5305865758729339</v>
       </c>
       <c r="F9">
-        <v>0.4837210296455433</v>
+        <v>0.6444075940171907</v>
       </c>
       <c r="G9">
-        <v>0.4948547380571429</v>
+        <v>0.6444075940171907</v>
       </c>
       <c r="H9">
-        <v>0.4948547380571429</v>
+        <v>0.6444075940171907</v>
       </c>
       <c r="I9">
-        <v>0.4948547380571429</v>
+        <v>0.6444075940171907</v>
       </c>
       <c r="J9">
-        <v>0.4948547380571429</v>
+        <v>0.6444075940171907</v>
       </c>
       <c r="K9">
-        <v>0.5046017711060464</v>
+        <v>0.6444075940171907</v>
       </c>
       <c r="L9">
-        <v>0.5687808123079225</v>
+        <v>0.7060272770333538</v>
       </c>
       <c r="M9">
-        <v>0.5687808123079225</v>
+        <v>0.7060272770333538</v>
       </c>
       <c r="N9">
-        <v>0.6964312409178008</v>
+        <v>0.8678179623798923</v>
       </c>
       <c r="O9">
-        <v>0.6964312409178008</v>
+        <v>0.8678179623798923</v>
       </c>
       <c r="P9">
-        <v>0.6964312409178008</v>
+        <v>0.8678179623798923</v>
       </c>
       <c r="Q9">
-        <v>0.6969798210009515</v>
+        <v>0.8678179623798923</v>
       </c>
       <c r="R9">
-        <v>0.7211677521845449</v>
+        <v>0.8678179623798923</v>
       </c>
       <c r="S9">
-        <v>0.7610233279945554</v>
+        <v>0.8910501765230463</v>
       </c>
       <c r="T9">
-        <v>0.7837726119729664</v>
+        <v>0.8910501765230463</v>
       </c>
       <c r="U9">
-        <v>0.7837726119729664</v>
+        <v>0.8910501765230463</v>
       </c>
       <c r="V9">
-        <v>0.8517964188763786</v>
+        <v>0.9587376965564249</v>
       </c>
       <c r="W9">
-        <v>0.8517964188763786</v>
+        <v>0.9587376965564249</v>
       </c>
       <c r="X9">
-        <v>0.8703362304279482</v>
+        <v>0.9587376965564249</v>
       </c>
       <c r="Y9">
-        <v>0.8967175207579332</v>
+        <v>0.9607046959730829</v>
       </c>
       <c r="Z9">
-        <v>0.9401000885461078</v>
+        <v>0.9895032343465995</v>
       </c>
       <c r="AA9">
-        <v>0.9401000885461078</v>
+        <v>0.9895032343465995</v>
       </c>
       <c r="AB9">
-        <v>0.9482419284557402</v>
+        <v>0.9895032343465995</v>
       </c>
       <c r="AC9">
-        <v>0.9587862993602081</v>
+        <v>0.9895032343465995</v>
       </c>
       <c r="AD9">
-        <v>0.9587862993602081</v>
+        <v>0.9895032343465995</v>
       </c>
       <c r="AE9">
-        <v>0.9905723084682522</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9905723084682522</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9905723084682522</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -2792,97 +2792,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1834141145441146</v>
+        <v>0.279868192942239</v>
       </c>
       <c r="E10">
-        <v>0.2506591437445967</v>
+        <v>0.3505835425418786</v>
       </c>
       <c r="F10">
-        <v>0.377394462956912</v>
+        <v>0.5284062457928377</v>
       </c>
       <c r="G10">
-        <v>0.3875468783677713</v>
+        <v>0.5284062457928377</v>
       </c>
       <c r="H10">
-        <v>0.3875468783677713</v>
+        <v>0.5284062457928377</v>
       </c>
       <c r="I10">
-        <v>0.3875468783677713</v>
+        <v>0.5284062457928377</v>
       </c>
       <c r="J10">
-        <v>0.3875468783677713</v>
+        <v>0.5284062457928377</v>
       </c>
       <c r="K10">
-        <v>0.4026890756329012</v>
+        <v>0.5284062457928377</v>
       </c>
       <c r="L10">
-        <v>0.4450833166059147</v>
+        <v>0.5543798037040507</v>
       </c>
       <c r="M10">
-        <v>0.4450833166059147</v>
+        <v>0.5543798037040507</v>
       </c>
       <c r="N10">
-        <v>0.5821750491693792</v>
+        <v>0.7508483738206806</v>
       </c>
       <c r="O10">
-        <v>0.5934348412685099</v>
+        <v>0.7508483738206806</v>
       </c>
       <c r="P10">
-        <v>0.5934348412685099</v>
+        <v>0.7508483738206806</v>
       </c>
       <c r="Q10">
-        <v>0.6145243277209056</v>
+        <v>0.7508483738206806</v>
       </c>
       <c r="R10">
-        <v>0.6381819505228523</v>
+        <v>0.7508483738206806</v>
       </c>
       <c r="S10">
-        <v>0.703540387966078</v>
+        <v>0.8181670707817141</v>
       </c>
       <c r="T10">
-        <v>0.7225913775749555</v>
+        <v>0.8181670707817141</v>
       </c>
       <c r="U10">
-        <v>0.7225913775749555</v>
+        <v>0.8181670707817141</v>
       </c>
       <c r="V10">
-        <v>0.7809984747580764</v>
+        <v>0.8729704537403853</v>
       </c>
       <c r="W10">
-        <v>0.7809984747580764</v>
+        <v>0.8729704537403853</v>
       </c>
       <c r="X10">
-        <v>0.8150146789869771</v>
+        <v>0.8838600484657247</v>
       </c>
       <c r="Y10">
-        <v>0.820050364121387</v>
+        <v>0.8838600484657247</v>
       </c>
       <c r="Z10">
-        <v>0.9039154891997903</v>
+        <v>0.9844985079806338</v>
       </c>
       <c r="AA10">
-        <v>0.9039154891997903</v>
+        <v>0.9844985079806338</v>
       </c>
       <c r="AB10">
-        <v>0.9306041340226459</v>
+        <v>0.9844985079806338</v>
       </c>
       <c r="AC10">
-        <v>0.9355112528566357</v>
+        <v>0.9844985079806338</v>
       </c>
       <c r="AD10">
-        <v>0.9355112528566357</v>
+        <v>0.9844985079806338</v>
       </c>
       <c r="AE10">
-        <v>0.9720890282398348</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9796095170982096</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9796095170982096</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9834543082308231</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1703132155112756</v>
+        <v>0.2581194692257367</v>
       </c>
       <c r="E11">
-        <v>0.3335698253102958</v>
+        <v>0.5033660608247312</v>
       </c>
       <c r="F11">
-        <v>0.3887956142909423</v>
+        <v>0.5515394995485102</v>
       </c>
       <c r="G11">
-        <v>0.3913268849433519</v>
+        <v>0.5515394995485102</v>
       </c>
       <c r="H11">
-        <v>0.3913268849433519</v>
+        <v>0.5515394995485102</v>
       </c>
       <c r="I11">
-        <v>0.3913268849433519</v>
+        <v>0.5515394995485102</v>
       </c>
       <c r="J11">
-        <v>0.3913268849433519</v>
+        <v>0.5515394995485102</v>
       </c>
       <c r="K11">
-        <v>0.3961049839245536</v>
+        <v>0.5515394995485102</v>
       </c>
       <c r="L11">
-        <v>0.4452909818895217</v>
+        <v>0.5886949653535395</v>
       </c>
       <c r="M11">
-        <v>0.4572907934027475</v>
+        <v>0.5886949653535395</v>
       </c>
       <c r="N11">
-        <v>0.5867411036368921</v>
+        <v>0.7722710633672354</v>
       </c>
       <c r="O11">
-        <v>0.5886000076689216</v>
+        <v>0.7722710633672354</v>
       </c>
       <c r="P11">
-        <v>0.5886000076689216</v>
+        <v>0.7722710633672354</v>
       </c>
       <c r="Q11">
-        <v>0.5889576927253004</v>
+        <v>0.7722710633672354</v>
       </c>
       <c r="R11">
-        <v>0.6227992911994499</v>
+        <v>0.7814348027026814</v>
       </c>
       <c r="S11">
-        <v>0.6519813083764809</v>
+        <v>0.7820983902264017</v>
       </c>
       <c r="T11">
-        <v>0.6732030186592054</v>
+        <v>0.7820983902264017</v>
       </c>
       <c r="U11">
-        <v>0.6732030186592054</v>
+        <v>0.7820983902264017</v>
       </c>
       <c r="V11">
-        <v>0.7456635023825875</v>
+        <v>0.8617118902777081</v>
       </c>
       <c r="W11">
-        <v>0.7456635023825875</v>
+        <v>0.8617118902777081</v>
       </c>
       <c r="X11">
-        <v>0.7820272904006498</v>
+        <v>0.8754766855137056</v>
       </c>
       <c r="Y11">
-        <v>0.8077808094603033</v>
+        <v>0.8754766855137056</v>
       </c>
       <c r="Z11">
-        <v>0.8940176916831504</v>
+        <v>0.9802215162999648</v>
       </c>
       <c r="AA11">
-        <v>0.8940176916831504</v>
+        <v>0.9802215162999648</v>
       </c>
       <c r="AB11">
-        <v>0.9194991556704498</v>
+        <v>0.9802215162999648</v>
       </c>
       <c r="AC11">
-        <v>0.9381812814892083</v>
+        <v>0.9802215162999648</v>
       </c>
       <c r="AD11">
-        <v>0.9381812814892083</v>
+        <v>0.9802215162999648</v>
       </c>
       <c r="AE11">
-        <v>0.9778416306645752</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9784196343862901</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9784196343862901</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.989570922437966</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5231258575266511</v>
       </c>
       <c r="F2">
-        <v>0.5385140204315128</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="H2">
-        <v>61</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
         <v>59</v>
+      </c>
+      <c r="K2">
+        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.7005843074283453</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5039245900298179</v>
-      </c>
       <c r="G3">
+        <v>700</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
-        <v>61</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
+      <c r="I3" t="s">
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
         <v>59</v>
+      </c>
+      <c r="K3">
+        <v>61</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.6532037532122945</v>
       </c>
       <c r="F4">
-        <v>0.5013717976524071</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="H4">
-        <v>61</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
         <v>59</v>
+      </c>
+      <c r="K4">
+        <v>61</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5441766183760528</v>
       </c>
       <c r="F5">
-        <v>0.5022187872261448</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="H5">
-        <v>61</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
         <v>59</v>
+      </c>
+      <c r="K5">
+        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.691644503581796</v>
       </c>
       <c r="F6">
-        <v>0.5208100672214501</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="H6">
-        <v>61</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
         <v>59</v>
+      </c>
+      <c r="K6">
+        <v>61</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5528829264838052</v>
       </c>
       <c r="F7">
-        <v>0.5931931206222549</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H7">
-        <v>61</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
         <v>59</v>
+      </c>
+      <c r="K7">
+        <v>61</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.620983109818972</v>
       </c>
       <c r="F8">
-        <v>0.5602823753215028</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>700</v>
       </c>
       <c r="H8">
-        <v>61</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
         <v>59</v>
+      </c>
+      <c r="K8">
+        <v>61</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5305865758729339</v>
       </c>
       <c r="F9">
-        <v>0.5046017711060464</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H9">
-        <v>61</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
         <v>59</v>
+      </c>
+      <c r="K9">
+        <v>61</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5284062457928377</v>
       </c>
       <c r="F10">
-        <v>0.5821750491693792</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H10">
-        <v>61</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
         <v>59</v>
+      </c>
+      <c r="K10">
+        <v>61</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5033660608247312</v>
       </c>
       <c r="F11">
-        <v>0.5867411036368921</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H11">
-        <v>61</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
         <v>59</v>
+      </c>
+      <c r="K11">
+        <v>61</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7010330725308697</v>
       </c>
       <c r="F2">
-        <v>0.7555184052237373</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H2">
-        <v>61</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
         <v>59</v>
+      </c>
+      <c r="K2">
+        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7005843074283453</v>
       </c>
       <c r="F3">
-        <v>0.7801564581853572</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H3">
-        <v>61</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
         <v>59</v>
+      </c>
+      <c r="K3">
+        <v>61</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.742757565222216</v>
       </c>
       <c r="F4">
-        <v>0.7657202265424143</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H4">
-        <v>61</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
         <v>59</v>
+      </c>
+      <c r="K4">
+        <v>61</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8111755945679842</v>
       </c>
       <c r="F5">
-        <v>0.7209815917830027</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H5">
-        <v>61</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
         <v>59</v>
+      </c>
+      <c r="K5">
+        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>18</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.781521569705252</v>
       </c>
       <c r="F6">
-        <v>0.7585925595885805</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H6">
-        <v>61</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
         <v>59</v>
+      </c>
+      <c r="K6">
+        <v>61</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7720180573198412</v>
       </c>
       <c r="F7">
-        <v>0.7098136485701185</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H7">
-        <v>61</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
         <v>59</v>
+      </c>
+      <c r="K7">
+        <v>61</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7771149473949416</v>
       </c>
       <c r="F8">
-        <v>0.7174120189577369</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="H8">
-        <v>61</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
         <v>59</v>
+      </c>
+      <c r="K8">
+        <v>61</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7060272770333538</v>
       </c>
       <c r="F9">
-        <v>0.7211677521845449</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="H9">
-        <v>61</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
         <v>59</v>
+      </c>
+      <c r="K9">
+        <v>61</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7508483738206806</v>
       </c>
       <c r="F10">
-        <v>0.703540387966078</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H10">
-        <v>61</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
         <v>59</v>
+      </c>
+      <c r="K10">
+        <v>61</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7722710633672354</v>
       </c>
       <c r="F11">
-        <v>0.7456635023825875</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H11">
-        <v>61</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
         <v>59</v>
+      </c>
+      <c r="K11">
+        <v>61</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8567625617812776</v>
       </c>
       <c r="F2">
-        <v>0.8177527231916734</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H2">
-        <v>61</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
         <v>59</v>
+      </c>
+      <c r="K2">
+        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9131735933503891</v>
       </c>
       <c r="F3">
-        <v>0.8169189631907093</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H3">
-        <v>61</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
         <v>59</v>
+      </c>
+      <c r="K3">
+        <v>61</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9127646688592772</v>
       </c>
       <c r="F4">
-        <v>0.8035760888064587</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H4">
-        <v>61</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
         <v>59</v>
+      </c>
+      <c r="K4">
+        <v>61</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8111755945679842</v>
       </c>
       <c r="F5">
-        <v>0.8253085072445168</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H5">
-        <v>61</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
         <v>59</v>
+      </c>
+      <c r="K5">
+        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.903748593034175</v>
       </c>
       <c r="F6">
-        <v>0.8328152888866323</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H6">
-        <v>61</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
         <v>59</v>
+      </c>
+      <c r="K6">
+        <v>61</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8157992386444717</v>
       </c>
       <c r="F7">
-        <v>0.8122572188863711</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H7">
-        <v>61</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
         <v>59</v>
+      </c>
+      <c r="K7">
+        <v>61</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8494031807180833</v>
       </c>
       <c r="F8">
-        <v>0.8519529778517404</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>700</v>
       </c>
       <c r="H8">
-        <v>61</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
         <v>59</v>
+      </c>
+      <c r="K8">
+        <v>61</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8678179623798923</v>
       </c>
       <c r="F9">
-        <v>0.8517964188763786</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H9">
-        <v>61</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
         <v>59</v>
+      </c>
+      <c r="K9">
+        <v>61</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8181670707817141</v>
       </c>
       <c r="F10">
-        <v>0.8150146789869771</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H10">
-        <v>61</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
         <v>59</v>
+      </c>
+      <c r="K10">
+        <v>61</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8617118902777081</v>
       </c>
       <c r="F11">
-        <v>0.8077808094603033</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>700</v>
       </c>
       <c r="H11">
-        <v>61</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
         <v>59</v>
+      </c>
+      <c r="K11">
+        <v>61</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9258052650310274</v>
       </c>
       <c r="F2">
-        <v>0.9308724701160189</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>700</v>
       </c>
       <c r="H2">
-        <v>61</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
         <v>59</v>
+      </c>
+      <c r="K2">
+        <v>61</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9131735933503891</v>
       </c>
       <c r="F3">
-        <v>0.9581144562450661</v>
+        <v>18</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>700</v>
       </c>
       <c r="H3">
-        <v>61</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
         <v>59</v>
+      </c>
+      <c r="K3">
+        <v>61</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9127646688592772</v>
       </c>
       <c r="F4">
-        <v>0.9037832935511264</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>700</v>
       </c>
       <c r="H4">
-        <v>61</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
         <v>59</v>
+      </c>
+      <c r="K4">
+        <v>61</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9214549994352191</v>
       </c>
       <c r="F5">
-        <v>0.9263636633841545</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>700</v>
       </c>
       <c r="H5">
-        <v>61</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
         <v>59</v>
+      </c>
+      <c r="K5">
+        <v>61</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.903748593034175</v>
       </c>
       <c r="F6">
-        <v>0.9016299915734286</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>700</v>
       </c>
       <c r="H6">
-        <v>61</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
         <v>59</v>
+      </c>
+      <c r="K6">
+        <v>61</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>0.9925645026736847</v>
+      </c>
+      <c r="F7">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.905956129170601</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>24</v>
       </c>
-      <c r="H7">
-        <v>61</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
+      <c r="I7" t="s">
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
         <v>59</v>
+      </c>
+      <c r="K7">
+        <v>61</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>29</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9910371171571952</v>
       </c>
       <c r="F8">
-        <v>0.9158905631293843</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>700</v>
       </c>
       <c r="H8">
-        <v>61</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
         <v>59</v>
+      </c>
+      <c r="K8">
+        <v>61</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9587376965564249</v>
       </c>
       <c r="F9">
-        <v>0.9401000885461078</v>
+        <v>21</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>700</v>
       </c>
       <c r="H9">
-        <v>61</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
         <v>59</v>
+      </c>
+      <c r="K9">
+        <v>61</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9844985079806338</v>
+      </c>
+      <c r="F10">
         <v>25</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9039154891997903</v>
-      </c>
       <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
         <v>24</v>
       </c>
-      <c r="H10">
-        <v>61</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
+      <c r="I10" t="s">
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
         <v>59</v>
+      </c>
+      <c r="K10">
+        <v>61</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9802215162999648</v>
       </c>
       <c r="F11">
-        <v>0.9194991556704498</v>
+        <v>25</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>700</v>
       </c>
       <c r="H11">
-        <v>61</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
         <v>59</v>
+      </c>
+      <c r="K11">
+        <v>61</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
